--- a/BackTest/2020-01-16 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-16 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>217.1692000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>228.2096000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>46250</v>
@@ -521,7 +521,7 @@
         <v>244.6984000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>46900</v>
@@ -562,7 +562,7 @@
         <v>251.4903000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>46980</v>
@@ -603,7 +603,7 @@
         <v>252.4903000000001</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>48660</v>
@@ -644,9 +644,11 @@
         <v>252.4153000000001</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>49190</v>
+      </c>
       <c r="J7" t="n">
         <v>46250</v>
       </c>
@@ -683,9 +685,11 @@
         <v>249.8770000000001</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>48300</v>
+      </c>
       <c r="J8" t="n">
         <v>46250</v>
       </c>
@@ -722,9 +726,11 @@
         <v>235.8209000000001</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I9" t="n">
+        <v>48160</v>
+      </c>
       <c r="J9" t="n">
         <v>46250</v>
       </c>
@@ -761,9 +767,11 @@
         <v>235.4173000000001</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>48090</v>
+      </c>
       <c r="J10" t="n">
         <v>46250</v>
       </c>
@@ -878,9 +886,11 @@
         <v>233.9282000000001</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>47330</v>
+      </c>
       <c r="J13" t="n">
         <v>46250</v>
       </c>
@@ -917,9 +927,11 @@
         <v>-163.4087999999999</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>47290</v>
+      </c>
       <c r="J14" t="n">
         <v>46250</v>
       </c>
@@ -1034,9 +1046,11 @@
         <v>4.873000000000103</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
+        <v>47920</v>
+      </c>
       <c r="J17" t="n">
         <v>46250</v>
       </c>
@@ -1112,9 +1126,11 @@
         <v>-62.0529610199999</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
+        <v>47450</v>
+      </c>
       <c r="J19" t="n">
         <v>46250</v>
       </c>
@@ -1190,9 +1206,11 @@
         <v>-166.1200610199999</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>46940</v>
+      </c>
       <c r="J21" t="n">
         <v>46250</v>
       </c>
@@ -1229,9 +1247,11 @@
         <v>-144.3381610199999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>46880</v>
+      </c>
       <c r="J22" t="n">
         <v>46250</v>
       </c>
@@ -1268,9 +1288,11 @@
         <v>-156.5982610199999</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
+        <v>47110</v>
+      </c>
       <c r="J23" t="n">
         <v>46250</v>
       </c>
@@ -1307,9 +1329,11 @@
         <v>-133.8893610199999</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>46430</v>
+      </c>
       <c r="J24" t="n">
         <v>46250</v>
       </c>
@@ -1346,9 +1370,11 @@
         <v>-100.0853610199999</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>46880</v>
+      </c>
       <c r="J25" t="n">
         <v>46250</v>
       </c>
@@ -1385,9 +1411,11 @@
         <v>-101.9058610199999</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>47210</v>
+      </c>
       <c r="J26" t="n">
         <v>46250</v>
       </c>
@@ -1424,9 +1452,11 @@
         <v>-101.9058610199999</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
-      </c>
-      <c r="I27" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>47050</v>
+      </c>
       <c r="J27" t="n">
         <v>46250</v>
       </c>
@@ -1463,9 +1493,11 @@
         <v>-101.9058610199999</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
-      </c>
-      <c r="I28" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>47050</v>
+      </c>
       <c r="J28" t="n">
         <v>46250</v>
       </c>
@@ -1502,9 +1534,11 @@
         <v>-101.9058610199999</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>47050</v>
+      </c>
       <c r="J29" t="n">
         <v>46250</v>
       </c>
@@ -1541,9 +1575,11 @@
         <v>-99.35536101999988</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>47050</v>
+      </c>
       <c r="J30" t="n">
         <v>46250</v>
       </c>
@@ -1580,9 +1616,11 @@
         <v>-94.18136101999987</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
+        <v>47060</v>
+      </c>
       <c r="J31" t="n">
         <v>46250</v>
       </c>
@@ -1775,9 +1813,11 @@
         <v>-95.10676101999987</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>46240</v>
+      </c>
       <c r="J36" t="n">
         <v>46250</v>
       </c>
@@ -1814,9 +1854,11 @@
         <v>-97.04626101999986</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>46610</v>
+      </c>
       <c r="J37" t="n">
         <v>46250</v>
       </c>
@@ -1853,9 +1895,11 @@
         <v>-95.02106101999986</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>46260</v>
+      </c>
       <c r="J38" t="n">
         <v>46250</v>
       </c>
@@ -1892,9 +1936,11 @@
         <v>-95.00616101999987</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>46600</v>
+      </c>
       <c r="J39" t="n">
         <v>46250</v>
       </c>
@@ -1931,9 +1977,11 @@
         <v>-114.0771610199999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>46730</v>
+      </c>
       <c r="J40" t="n">
         <v>46250</v>
       </c>
@@ -1970,9 +2018,11 @@
         <v>-109.4263610199999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>46240</v>
+      </c>
       <c r="J41" t="n">
         <v>46250</v>
       </c>
@@ -2009,9 +2059,11 @@
         <v>-114.0770610199999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>46380</v>
+      </c>
       <c r="J42" t="n">
         <v>46250</v>
       </c>
@@ -2048,9 +2100,11 @@
         <v>-136.7304610199999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>46370</v>
+      </c>
       <c r="J43" t="n">
         <v>46250</v>
       </c>
@@ -2087,9 +2141,11 @@
         <v>-147.8971610199999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>46350</v>
+      </c>
       <c r="J44" t="n">
         <v>46250</v>
       </c>
@@ -2126,9 +2182,11 @@
         <v>-147.8735610199999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>46340</v>
+      </c>
       <c r="J45" t="n">
         <v>46250</v>
       </c>
@@ -2165,9 +2223,11 @@
         <v>-149.6325610199999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>46510</v>
+      </c>
       <c r="J46" t="n">
         <v>46250</v>
       </c>
@@ -2204,9 +2264,11 @@
         <v>-162.5932610199999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45930</v>
+      </c>
       <c r="J47" t="n">
         <v>46250</v>
       </c>
@@ -2243,9 +2305,11 @@
         <v>-157.0428610199999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>45920</v>
+      </c>
       <c r="J48" t="n">
         <v>46250</v>
       </c>
@@ -2282,7 +2346,7 @@
         <v>-151.4828610199999</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>46280</v>
@@ -2323,9 +2387,11 @@
         <v>-151.5064610199998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>46870</v>
+      </c>
       <c r="J50" t="n">
         <v>46250</v>
       </c>
@@ -2362,9 +2428,11 @@
         <v>-146.4131610199998</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>45850</v>
+      </c>
       <c r="J51" t="n">
         <v>46250</v>
       </c>
@@ -2401,9 +2469,11 @@
         <v>-146.9131610199998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>46580</v>
+      </c>
       <c r="J52" t="n">
         <v>46250</v>
       </c>
@@ -2440,9 +2510,11 @@
         <v>-180.3486615499999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>46480</v>
+      </c>
       <c r="J53" t="n">
         <v>46250</v>
       </c>
@@ -2479,7 +2551,7 @@
         <v>-180.3486615499999</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I54" t="n">
         <v>46450</v>
@@ -2520,7 +2592,7 @@
         <v>-185.3486615499999</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>46450</v>
@@ -2561,7 +2633,7 @@
         <v>-47.51146154999986</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56" t="n">
         <v>46290</v>
@@ -2602,9 +2674,11 @@
         <v>-16.87906753999987</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>46310</v>
+      </c>
       <c r="J57" t="n">
         <v>46250</v>
       </c>
@@ -2641,7 +2715,7 @@
         <v>-18.54136753999987</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I58" t="n">
         <v>46780</v>
@@ -2682,7 +2756,7 @@
         <v>-27.54136753999987</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I59" t="n">
         <v>46460</v>
@@ -2723,7 +2797,7 @@
         <v>-27.32856753999987</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>46200</v>
@@ -2764,7 +2838,7 @@
         <v>-27.32856753999987</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61" t="n">
         <v>46390</v>
@@ -2805,7 +2879,7 @@
         <v>-34.29446753999986</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I62" t="n">
         <v>46390</v>
@@ -2846,7 +2920,7 @@
         <v>-34.29446753999986</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I63" t="n">
         <v>46290</v>
@@ -2887,7 +2961,7 @@
         <v>-33.49446753999987</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I64" t="n">
         <v>46290</v>
@@ -2928,7 +3002,7 @@
         <v>-33.49446753999987</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I65" t="n">
         <v>46300</v>
@@ -2969,7 +3043,7 @@
         <v>-33.89726753999987</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I66" t="n">
         <v>46300</v>
@@ -3010,7 +3084,7 @@
         <v>-46.08166753999987</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>46040</v>
@@ -3051,7 +3125,7 @@
         <v>-43.92456753999987</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>46030</v>
@@ -3092,7 +3166,7 @@
         <v>233.7692324600001</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>46100</v>
@@ -3133,7 +3207,7 @@
         <v>240.4881324600001</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I70" t="n">
         <v>46260</v>
@@ -3174,7 +3248,7 @@
         <v>239.8281324600001</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>46960</v>
@@ -3215,7 +3289,7 @@
         <v>239.8281324600001</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I72" t="n">
         <v>46330</v>
@@ -3256,7 +3330,7 @@
         <v>241.2375324600001</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" t="n">
         <v>46330</v>
@@ -3297,7 +3371,7 @@
         <v>-95.61746753999989</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I74" t="n">
         <v>46960</v>
@@ -3338,7 +3412,7 @@
         <v>-144.4084675399999</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I75" t="n">
         <v>45980</v>
@@ -3379,7 +3453,7 @@
         <v>-146.7478675399999</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>45950</v>
@@ -3420,7 +3494,7 @@
         <v>-132.5182675399999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>45810</v>
@@ -3461,7 +3535,7 @@
         <v>-24.2756675399999</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>46080</v>
@@ -3502,7 +3576,7 @@
         <v>-34.8954675399999</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>46570</v>
@@ -3543,7 +3617,7 @@
         <v>-62.0476675399999</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>46530</v>
@@ -3584,7 +3658,7 @@
         <v>-61.7180675399999</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>46440</v>
@@ -3625,7 +3699,7 @@
         <v>-69.1928675399999</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>46510</v>
@@ -3666,7 +3740,7 @@
         <v>-56.1010675399999</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>46400</v>
@@ -3707,7 +3781,7 @@
         <v>-38.45046753999989</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>46430</v>
@@ -3748,7 +3822,7 @@
         <v>2.049532460000108</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>46450</v>
@@ -3789,7 +3863,7 @@
         <v>8.949532460000109</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>46870</v>
@@ -3830,7 +3904,7 @@
         <v>42.36423246000011</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>46960</v>
@@ -3871,7 +3945,7 @@
         <v>42.07193246000011</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>47000</v>
@@ -3912,9 +3986,11 @@
         <v>43.00293246000011</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I89" t="n">
+        <v>46990</v>
+      </c>
       <c r="J89" t="n">
         <v>46250</v>
       </c>
@@ -3951,9 +4027,11 @@
         <v>43.00293246000011</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I90" t="n">
+        <v>47000</v>
+      </c>
       <c r="J90" t="n">
         <v>46250</v>
       </c>
@@ -3990,9 +4068,11 @@
         <v>49.07163246000011</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I91" t="n">
+        <v>47000</v>
+      </c>
       <c r="J91" t="n">
         <v>46250</v>
       </c>
@@ -4029,7 +4109,7 @@
         <v>-16.67446753999989</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>47110</v>
@@ -4070,9 +4150,11 @@
         <v>-16.67446753999989</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I93" t="n">
+        <v>46950</v>
+      </c>
       <c r="J93" t="n">
         <v>46250</v>
       </c>
@@ -4109,9 +4191,11 @@
         <v>-6.467967539999888</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I94" t="n">
+        <v>46950</v>
+      </c>
       <c r="J94" t="n">
         <v>46250</v>
       </c>
@@ -4148,9 +4232,11 @@
         <v>-6.639567539999888</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I95" t="n">
+        <v>47120</v>
+      </c>
       <c r="J95" t="n">
         <v>46250</v>
       </c>
@@ -4187,9 +4273,11 @@
         <v>32.56693246000011</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I96" t="n">
+        <v>47060</v>
+      </c>
       <c r="J96" t="n">
         <v>46250</v>
       </c>
@@ -4226,9 +4314,11 @@
         <v>30.00333246000011</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>47600</v>
+      </c>
       <c r="J97" t="n">
         <v>46250</v>
       </c>
@@ -4265,9 +4355,11 @@
         <v>55.47923246000011</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I98" t="n">
+        <v>47240</v>
+      </c>
       <c r="J98" t="n">
         <v>46250</v>
       </c>
@@ -4304,9 +4396,11 @@
         <v>55.47923246000011</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I99" t="n">
+        <v>47720</v>
+      </c>
       <c r="J99" t="n">
         <v>46250</v>
       </c>
@@ -4343,9 +4437,11 @@
         <v>55.47923246000011</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I100" t="n">
+        <v>47720</v>
+      </c>
       <c r="J100" t="n">
         <v>46250</v>
       </c>
@@ -4382,9 +4478,11 @@
         <v>79.7942324600001</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>47720</v>
+      </c>
       <c r="J101" t="n">
         <v>46250</v>
       </c>
@@ -4460,9 +4558,11 @@
         <v>133.2958324600001</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I103" t="n">
+        <v>47790</v>
+      </c>
       <c r="J103" t="n">
         <v>46250</v>
       </c>
@@ -4499,9 +4599,11 @@
         <v>133.3196324600001</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I104" t="n">
+        <v>47350</v>
+      </c>
       <c r="J104" t="n">
         <v>46250</v>
       </c>
@@ -4538,9 +4640,11 @@
         <v>115.3806324600001</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I105" t="n">
+        <v>47770</v>
+      </c>
       <c r="J105" t="n">
         <v>46250</v>
       </c>
@@ -4577,9 +4681,11 @@
         <v>118.3366324600001</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I106" t="n">
+        <v>47270</v>
+      </c>
       <c r="J106" t="n">
         <v>46250</v>
       </c>
@@ -4655,9 +4761,11 @@
         <v>170.9733324600001</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I108" t="n">
+        <v>47800</v>
+      </c>
       <c r="J108" t="n">
         <v>46250</v>
       </c>
@@ -4694,9 +4802,11 @@
         <v>170.9733324600001</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I109" t="n">
+        <v>48130</v>
+      </c>
       <c r="J109" t="n">
         <v>46250</v>
       </c>
@@ -4733,9 +4843,11 @@
         <v>170.9733324600001</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I110" t="n">
+        <v>48130</v>
+      </c>
       <c r="J110" t="n">
         <v>46250</v>
       </c>
@@ -4772,9 +4884,11 @@
         <v>170.1733324600001</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I111" t="n">
+        <v>48130</v>
+      </c>
       <c r="J111" t="n">
         <v>46250</v>
       </c>
@@ -4850,9 +4964,11 @@
         <v>164.8966324600001</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I113" t="n">
+        <v>47630</v>
+      </c>
       <c r="J113" t="n">
         <v>46250</v>
       </c>
@@ -5162,9 +5278,11 @@
         <v>54.42715326000011</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I121" t="n">
+        <v>47310</v>
+      </c>
       <c r="J121" t="n">
         <v>46250</v>
       </c>
@@ -5240,9 +5358,11 @@
         <v>50.92715326000011</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I123" t="n">
+        <v>47270</v>
+      </c>
       <c r="J123" t="n">
         <v>46250</v>
       </c>
@@ -5357,9 +5477,11 @@
         <v>-93.20975517999989</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I126" t="n">
+        <v>47140</v>
+      </c>
       <c r="J126" t="n">
         <v>46250</v>
       </c>
@@ -5435,9 +5557,11 @@
         <v>-116.7467551799999</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I128" t="n">
+        <v>46960</v>
+      </c>
       <c r="J128" t="n">
         <v>46250</v>
       </c>
@@ -5474,9 +5598,11 @@
         <v>-11.4844551799999</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I129" t="n">
+        <v>46950</v>
+      </c>
       <c r="J129" t="n">
         <v>46250</v>
       </c>
@@ -5513,9 +5639,11 @@
         <v>-33.2174551799999</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I130" t="n">
+        <v>47360</v>
+      </c>
       <c r="J130" t="n">
         <v>46250</v>
       </c>
@@ -5552,9 +5680,11 @@
         <v>-82.46635517999991</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I131" t="n">
+        <v>46950</v>
+      </c>
       <c r="J131" t="n">
         <v>46250</v>
       </c>
@@ -5591,9 +5721,11 @@
         <v>67.11694591000008</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I132" t="n">
+        <v>46870</v>
+      </c>
       <c r="J132" t="n">
         <v>46250</v>
       </c>
@@ -5630,9 +5762,11 @@
         <v>59.67274591000008</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I133" t="n">
+        <v>47560</v>
+      </c>
       <c r="J133" t="n">
         <v>46250</v>
       </c>
@@ -5669,9 +5803,11 @@
         <v>59.67274591000008</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I134" t="n">
+        <v>47310</v>
+      </c>
       <c r="J134" t="n">
         <v>46250</v>
       </c>
@@ -5708,9 +5844,11 @@
         <v>59.67274591000008</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I135" t="n">
+        <v>47310</v>
+      </c>
       <c r="J135" t="n">
         <v>46250</v>
       </c>
@@ -5747,9 +5885,11 @@
         <v>59.67274591000008</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I136" t="n">
+        <v>47310</v>
+      </c>
       <c r="J136" t="n">
         <v>46250</v>
       </c>
@@ -5786,9 +5926,11 @@
         <v>71.54314591000008</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I137" t="n">
+        <v>47310</v>
+      </c>
       <c r="J137" t="n">
         <v>46250</v>
       </c>
@@ -5825,9 +5967,11 @@
         <v>157.9742459100001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I138" t="n">
+        <v>48100</v>
+      </c>
       <c r="J138" t="n">
         <v>46250</v>
       </c>
@@ -5864,9 +6008,11 @@
         <v>280.9918459100001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I139" t="n">
+        <v>48140</v>
+      </c>
       <c r="J139" t="n">
         <v>46250</v>
       </c>
@@ -5903,9 +6049,11 @@
         <v>282.0518459100001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I140" t="n">
+        <v>48230</v>
+      </c>
       <c r="J140" t="n">
         <v>46250</v>
       </c>
@@ -8126,7 +8274,7 @@
         <v>2426.61857387</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
@@ -8134,13 +8282,15 @@
       </c>
       <c r="K197" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
+        <v>1.257702702702703</v>
+      </c>
+      <c r="M197" t="n">
+        <v>1.052108108108108</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8165,17 +8315,11 @@
         <v>2467.91237387</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
-      <c r="J198" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -8204,17 +8348,11 @@
         <v>2357.35259631</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
-      <c r="J199" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -8243,17 +8381,11 @@
         <v>2408.031696309999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
-      <c r="J200" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -8282,17 +8414,11 @@
         <v>2405.018996309999</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
-      <c r="J201" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -8321,17 +8447,11 @@
         <v>2142.606696309999</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I202" t="inlineStr"/>
-      <c r="J202" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -8360,17 +8480,11 @@
         <v>2143.906996309999</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
-      <c r="J203" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -8399,17 +8513,11 @@
         <v>2100.930696309999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
-      <c r="J204" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
       <c r="L204" t="n">
         <v>1</v>
       </c>
@@ -8438,17 +8546,11 @@
         <v>2145.930896309999</v>
       </c>
       <c r="H205" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I205" t="inlineStr"/>
-      <c r="J205" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -8477,17 +8579,11 @@
         <v>2178.515284269999</v>
       </c>
       <c r="H206" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I206" t="inlineStr"/>
-      <c r="J206" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
       <c r="L206" t="n">
         <v>1</v>
       </c>
@@ -8516,17 +8612,11 @@
         <v>2046.07298427</v>
       </c>
       <c r="H207" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I207" t="inlineStr"/>
-      <c r="J207" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
       <c r="L207" t="n">
         <v>1</v>
       </c>
@@ -8555,17 +8645,11 @@
         <v>2046.07298427</v>
       </c>
       <c r="H208" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I208" t="inlineStr"/>
-      <c r="J208" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
       <c r="L208" t="n">
         <v>1</v>
       </c>
@@ -8594,17 +8678,11 @@
         <v>2100.841484269999</v>
       </c>
       <c r="H209" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I209" t="inlineStr"/>
-      <c r="J209" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
       <c r="L209" t="n">
         <v>1</v>
       </c>
@@ -8633,17 +8711,11 @@
         <v>2016.609984269999</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I210" t="inlineStr"/>
-      <c r="J210" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
       <c r="L210" t="n">
         <v>1</v>
       </c>
@@ -8672,17 +8744,11 @@
         <v>2014.959384269999</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
-      <c r="J211" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
       <c r="L211" t="n">
         <v>1</v>
       </c>
@@ -8711,17 +8777,11 @@
         <v>2014.959384269999</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
-      <c r="J212" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
       <c r="L212" t="n">
         <v>1</v>
       </c>
@@ -8750,17 +8810,11 @@
         <v>2013.739384269999</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
-      <c r="J213" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
       <c r="L213" t="n">
         <v>1</v>
       </c>
@@ -8789,17 +8843,11 @@
         <v>1984.215284269999</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
-      <c r="J214" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
       <c r="L214" t="n">
         <v>1</v>
       </c>
@@ -8828,17 +8876,11 @@
         <v>1770.849984269999</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
-      <c r="J215" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
       <c r="L215" t="n">
         <v>1</v>
       </c>
@@ -8867,17 +8909,11 @@
         <v>1755.597984269999</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
-      <c r="J216" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
       <c r="L216" t="n">
         <v>1</v>
       </c>
@@ -8906,17 +8942,11 @@
         <v>1670.933784269999</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
-      <c r="J217" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
       <c r="L217" t="n">
         <v>1</v>
       </c>
@@ -8945,17 +8975,11 @@
         <v>1751.445084269999</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
       <c r="L218" t="n">
         <v>1</v>
       </c>
@@ -8984,17 +9008,11 @@
         <v>1512.642484269999</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
       <c r="L219" t="n">
         <v>1</v>
       </c>
@@ -9023,17 +9041,11 @@
         <v>1633.888884269999</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
       <c r="L220" t="n">
         <v>1</v>
       </c>
@@ -9062,17 +9074,11 @@
         <v>1458.680984269999</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
       <c r="L221" t="n">
         <v>1</v>
       </c>
@@ -9101,17 +9107,11 @@
         <v>1536.399684269999</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
       <c r="L222" t="n">
         <v>1</v>
       </c>
@@ -9140,17 +9140,11 @@
         <v>1667.346784269999</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
       <c r="L223" t="n">
         <v>1</v>
       </c>
@@ -9179,17 +9173,11 @@
         <v>1756.611284269999</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
       <c r="L224" t="n">
         <v>1</v>
       </c>
@@ -9218,17 +9206,11 @@
         <v>1753.611284269999</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
       <c r="L225" t="n">
         <v>1</v>
       </c>
@@ -9257,17 +9239,11 @@
         <v>1776.37298427</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
       <c r="L226" t="n">
         <v>1</v>
       </c>
@@ -9296,17 +9272,11 @@
         <v>1780.98398427</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
       <c r="L227" t="n">
         <v>1</v>
       </c>
@@ -9335,17 +9305,11 @@
         <v>1765.52228427</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
       <c r="L228" t="n">
         <v>1</v>
       </c>
@@ -9374,17 +9338,11 @@
         <v>1765.52228427</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
       <c r="L229" t="n">
         <v>1</v>
       </c>
@@ -9413,17 +9371,11 @@
         <v>1765.52228427</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I230" t="inlineStr"/>
-      <c r="J230" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
       <c r="L230" t="n">
         <v>1</v>
       </c>
@@ -9455,14 +9407,8 @@
         <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
-      <c r="J231" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
       <c r="L231" t="n">
         <v>1</v>
       </c>
@@ -9491,17 +9437,11 @@
         <v>2012.480984269999</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
       <c r="L232" t="n">
         <v>1</v>
       </c>
@@ -9530,17 +9470,11 @@
         <v>2052.685684269999</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
       <c r="L233" t="n">
         <v>1</v>
       </c>
@@ -9572,14 +9506,8 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
       <c r="L234" t="n">
         <v>1</v>
       </c>
@@ -9611,14 +9539,8 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
       <c r="L235" t="n">
         <v>1</v>
       </c>
@@ -9650,14 +9572,8 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
       <c r="L236" t="n">
         <v>1</v>
       </c>
@@ -9689,14 +9605,8 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
       <c r="L237" t="n">
         <v>1</v>
       </c>
@@ -9728,14 +9638,8 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
       </c>
@@ -9767,14 +9671,8 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -9806,14 +9704,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -9845,14 +9737,8 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
       <c r="L241" t="n">
         <v>1</v>
       </c>
@@ -9884,14 +9770,8 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
       </c>
@@ -9923,14 +9803,8 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -9962,14 +9836,8 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -10001,14 +9869,8 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -10040,14 +9902,8 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -10079,14 +9935,8 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -10118,14 +9968,8 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -10157,14 +10001,8 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -10196,14 +10034,8 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -10235,14 +10067,8 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -10274,14 +10100,8 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -10313,14 +10133,8 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -10352,14 +10166,8 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -10391,14 +10199,8 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -10430,14 +10232,8 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -10469,14 +10265,8 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -10508,14 +10298,8 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -10547,14 +10331,8 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -10586,14 +10364,8 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -10625,14 +10397,8 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -10664,14 +10430,8 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -10703,14 +10463,8 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -10742,14 +10496,8 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -10781,14 +10529,8 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -10820,14 +10562,8 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -10859,14 +10595,8 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -10898,14 +10628,8 @@
         <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -10937,14 +10661,8 @@
         <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -10976,14 +10694,8 @@
         <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -11015,14 +10727,8 @@
         <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -11054,14 +10760,8 @@
         <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -11093,14 +10793,8 @@
         <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -11132,14 +10826,8 @@
         <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -11168,17 +10856,11 @@
         <v>2551.25788427</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -11207,17 +10889,11 @@
         <v>2551.43208427</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -11249,14 +10925,8 @@
         <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -11288,14 +10958,8 @@
         <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -11327,14 +10991,8 @@
         <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -11366,14 +11024,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -11405,14 +11057,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -11444,14 +11090,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -11483,14 +11123,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -11522,14 +11156,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -11561,14 +11189,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -11600,14 +11222,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -11636,23 +11252,15 @@
         <v>2494.746484270001</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
-        <v>1.259864864864865</v>
-      </c>
-      <c r="M287" t="n">
-        <v>1.052108108108108</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11776,7 +11384,7 @@
         <v>2728.747183750001</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11809,7 +11417,7 @@
         <v>2728.747183750001</v>
       </c>
       <c r="H292" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -11842,7 +11450,7 @@
         <v>2728.747183750001</v>
       </c>
       <c r="H293" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -11875,7 +11483,7 @@
         <v>2736.88738375</v>
       </c>
       <c r="H294" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11908,7 +11516,7 @@
         <v>2732.09568375</v>
       </c>
       <c r="H295" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -11941,7 +11549,7 @@
         <v>2739.67268375</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -12139,7 +11747,7 @@
         <v>2731.987583750001</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -12172,7 +11780,7 @@
         <v>2739.292083750001</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -12205,7 +11813,7 @@
         <v>2703.006783750001</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12403,7 +12011,7 @@
         <v>2527.224283750001</v>
       </c>
       <c r="H310" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -12436,7 +12044,7 @@
         <v>2552.037783750001</v>
       </c>
       <c r="H311" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12469,7 +12077,7 @@
         <v>2537.404983750001</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12502,7 +12110,7 @@
         <v>2539.404983750001</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12535,7 +12143,7 @@
         <v>2539.504983750001</v>
       </c>
       <c r="H314" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12568,7 +12176,7 @@
         <v>2539.513983750001</v>
       </c>
       <c r="H315" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12601,7 +12209,7 @@
         <v>2537.511383750001</v>
       </c>
       <c r="H316" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -16726,7 +16334,7 @@
         <v>2029.74180643</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -16792,7 +16400,7 @@
         <v>2088.328206430001</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -16825,7 +16433,7 @@
         <v>2202.251606430001</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16858,7 +16466,7 @@
         <v>2226.292306430001</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -16891,7 +16499,7 @@
         <v>2226.292306430001</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -16924,7 +16532,7 @@
         <v>2198.332306430001</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -16957,7 +16565,7 @@
         <v>2198.382306430001</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -16990,7 +16598,7 @@
         <v>2199.872306430001</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17023,7 +16631,7 @@
         <v>2206.020706430001</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17056,7 +16664,7 @@
         <v>2206.020706430001</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17089,7 +16697,7 @@
         <v>2205.620706430001</v>
       </c>
       <c r="H452" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17122,7 +16730,7 @@
         <v>2208.60760643</v>
       </c>
       <c r="H453" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17155,7 +16763,7 @@
         <v>2198.857706430001</v>
       </c>
       <c r="H454" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17188,7 +16796,7 @@
         <v>2236.082806430001</v>
       </c>
       <c r="H455" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17221,7 +16829,7 @@
         <v>2235.582806430001</v>
       </c>
       <c r="H456" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17254,7 +16862,7 @@
         <v>2234.022806430001</v>
       </c>
       <c r="H457" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17287,7 +16895,7 @@
         <v>2212.797406430001</v>
       </c>
       <c r="H458" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -17320,7 +16928,7 @@
         <v>2216.624506430001</v>
       </c>
       <c r="H459" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -17353,7 +16961,7 @@
         <v>2181.944906430001</v>
       </c>
       <c r="H460" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -17386,7 +16994,7 @@
         <v>2178.944906430001</v>
       </c>
       <c r="H461" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -17419,7 +17027,7 @@
         <v>2177.211406430001</v>
       </c>
       <c r="H462" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -17452,7 +17060,7 @@
         <v>2177.211406430001</v>
       </c>
       <c r="H463" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -17485,7 +17093,7 @@
         <v>2175.439506430001</v>
       </c>
       <c r="H464" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -17518,7 +17126,7 @@
         <v>2159.297506430001</v>
       </c>
       <c r="H465" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -17551,7 +17159,7 @@
         <v>2159.297506430001</v>
       </c>
       <c r="H466" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -17617,7 +17225,7 @@
         <v>1424.979406430001</v>
       </c>
       <c r="H468" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -17650,7 +17258,7 @@
         <v>1420.428206430001</v>
       </c>
       <c r="H469" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -17683,7 +17291,7 @@
         <v>1434.056006430001</v>
       </c>
       <c r="H470" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -17716,7 +17324,7 @@
         <v>1432.856006430001</v>
       </c>
       <c r="H471" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -17749,7 +17357,7 @@
         <v>1432.865006430001</v>
       </c>
       <c r="H472" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -17782,7 +17390,7 @@
         <v>1398.495006430001</v>
       </c>
       <c r="H473" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -17815,7 +17423,7 @@
         <v>1400.810406430001</v>
       </c>
       <c r="H474" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -20290,7 +19898,7 @@
         <v>1623.027706430001</v>
       </c>
       <c r="H549" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I549" t="inlineStr"/>
       <c r="J549" t="inlineStr"/>
@@ -20323,7 +19931,7 @@
         <v>1587.045806430001</v>
       </c>
       <c r="H550" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I550" t="inlineStr"/>
       <c r="J550" t="inlineStr"/>
@@ -20356,7 +19964,7 @@
         <v>1587.054806430001</v>
       </c>
       <c r="H551" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I551" t="inlineStr"/>
       <c r="J551" t="inlineStr"/>
@@ -20389,7 +19997,7 @@
         <v>1583.256506430001</v>
       </c>
       <c r="H552" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I552" t="inlineStr"/>
       <c r="J552" t="inlineStr"/>
@@ -20422,7 +20030,7 @@
         <v>1532.812606430001</v>
       </c>
       <c r="H553" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I553" t="inlineStr"/>
       <c r="J553" t="inlineStr"/>
@@ -20455,7 +20063,7 @@
         <v>1997.025506430001</v>
       </c>
       <c r="H554" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I554" t="inlineStr"/>
       <c r="J554" t="inlineStr"/>
@@ -20488,7 +20096,7 @@
         <v>1881.927806430001</v>
       </c>
       <c r="H555" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -20521,7 +20129,7 @@
         <v>1881.080306430001</v>
       </c>
       <c r="H556" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I556" t="inlineStr"/>
       <c r="J556" t="inlineStr"/>
@@ -22369,7 +21977,7 @@
         <v>2215.737206430001</v>
       </c>
       <c r="H612" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -22402,7 +22010,7 @@
         <v>2215.737206430001</v>
       </c>
       <c r="H613" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -22435,7 +22043,7 @@
         <v>2246.619406430001</v>
       </c>
       <c r="H614" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -22468,7 +22076,7 @@
         <v>2240.365306430001</v>
       </c>
       <c r="H615" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -22501,7 +22109,7 @@
         <v>2217.480006430001</v>
       </c>
       <c r="H616" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -22732,7 +22340,7 @@
         <v>2307.628206430001</v>
       </c>
       <c r="H623" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -22765,7 +22373,7 @@
         <v>2307.628206430001</v>
       </c>
       <c r="H624" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -22798,7 +22406,7 @@
         <v>2307.628206430001</v>
       </c>
       <c r="H625" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -22831,7 +22439,7 @@
         <v>2310.691606430001</v>
       </c>
       <c r="H626" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -22996,7 +22604,7 @@
         <v>2452.382188630001</v>
       </c>
       <c r="H631" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -23029,7 +22637,7 @@
         <v>2452.382188630001</v>
       </c>
       <c r="H632" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -23062,7 +22670,7 @@
         <v>2531.587588630001</v>
       </c>
       <c r="H633" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -23095,7 +22703,7 @@
         <v>2471.992988630001</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -23128,7 +22736,7 @@
         <v>2584.042588630001</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -23161,7 +22769,7 @@
         <v>2619.288888630001</v>
       </c>
       <c r="H636" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -23194,7 +22802,7 @@
         <v>2697.448082780001</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -23227,7 +22835,7 @@
         <v>2627.954882780001</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -23260,7 +22868,7 @@
         <v>2580.604982780001</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -23326,7 +22934,7 @@
         <v>2551.432882780001</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23524,7 +23132,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23557,7 +23165,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23590,7 +23198,7 @@
         <v>2499.103682780001</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23623,7 +23231,7 @@
         <v>2456.711782780001</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23656,7 +23264,7 @@
         <v>2525.818882780001</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23689,7 +23297,7 @@
         <v>2521.028082780001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23722,7 +23330,7 @@
         <v>2521.811082780001</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23755,7 +23363,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23788,7 +23396,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23821,7 +23429,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23854,7 +23462,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23887,7 +23495,7 @@
         <v>2444.78898278</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23920,7 +23528,7 @@
         <v>2350.80058278</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23953,7 +23561,7 @@
         <v>2109.18968278</v>
       </c>
       <c r="H660" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23986,7 +23594,7 @@
         <v>2072.23098278</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -24019,7 +23627,7 @@
         <v>2176.69858278</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -24052,7 +23660,7 @@
         <v>2144.22428278</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -24085,7 +23693,7 @@
         <v>2148.58698278</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -24118,7 +23726,7 @@
         <v>2156.83268278</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -24151,7 +23759,7 @@
         <v>2188.99778278</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -24184,7 +23792,7 @@
         <v>2053.65778278</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -24217,7 +23825,7 @@
         <v>2054.15778278</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -24250,7 +23858,7 @@
         <v>2073.45778278</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -24283,7 +23891,7 @@
         <v>2046.49698278</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -24316,7 +23924,7 @@
         <v>2515.40258278</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -24349,7 +23957,7 @@
         <v>2515.40258278</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -24382,7 +23990,7 @@
         <v>2517.40258278</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24393,6 +24001,6 @@
       <c r="M673" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-16 BackTest ZEC.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>217.1692000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,14 +484,10 @@
         <v>228.2096000000001</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>46250</v>
-      </c>
-      <c r="J3" t="n">
-        <v>46250</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="n">
         <v>1</v>
@@ -521,2131 +517,1755 @@
         <v>244.6984000000001</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>46900</v>
-      </c>
-      <c r="J4" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>48620</v>
+      </c>
+      <c r="C5" t="n">
+        <v>48660</v>
+      </c>
+      <c r="D5" t="n">
+        <v>48660</v>
+      </c>
+      <c r="E5" t="n">
+        <v>48620</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6.7919</v>
+      </c>
+      <c r="G5" t="n">
+        <v>251.4903000000001</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>48660</v>
+      </c>
+      <c r="C6" t="n">
+        <v>49190</v>
+      </c>
+      <c r="D6" t="n">
+        <v>49190</v>
+      </c>
+      <c r="E6" t="n">
+        <v>48660</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" t="n">
+        <v>252.4903000000001</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>48300</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48300</v>
+      </c>
+      <c r="D7" t="n">
+        <v>48300</v>
+      </c>
+      <c r="E7" t="n">
+        <v>48300</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G7" t="n">
+        <v>252.4153000000001</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>48150</v>
+      </c>
+      <c r="C8" t="n">
+        <v>48160</v>
+      </c>
+      <c r="D8" t="n">
+        <v>48160</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48150</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.5383</v>
+      </c>
+      <c r="G8" t="n">
+        <v>249.8770000000001</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>48100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48090</v>
+      </c>
+      <c r="D9" t="n">
+        <v>48100</v>
+      </c>
+      <c r="E9" t="n">
+        <v>48090</v>
+      </c>
+      <c r="F9" t="n">
+        <v>14.0561</v>
+      </c>
+      <c r="G9" t="n">
+        <v>235.8209000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>47680</v>
+      </c>
+      <c r="C10" t="n">
+        <v>47680</v>
+      </c>
+      <c r="D10" t="n">
+        <v>47680</v>
+      </c>
+      <c r="E10" t="n">
+        <v>47680</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.4036</v>
+      </c>
+      <c r="G10" t="n">
+        <v>235.4173000000001</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>47680</v>
+      </c>
+      <c r="C11" t="n">
+        <v>47670</v>
+      </c>
+      <c r="D11" t="n">
+        <v>47680</v>
+      </c>
+      <c r="E11" t="n">
+        <v>47670</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.396</v>
+      </c>
+      <c r="G11" t="n">
+        <v>235.0213000000001</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>47330</v>
+      </c>
+      <c r="C12" t="n">
+        <v>47330</v>
+      </c>
+      <c r="D12" t="n">
+        <v>47330</v>
+      </c>
+      <c r="E12" t="n">
+        <v>47330</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.841</v>
+      </c>
+      <c r="G12" t="n">
+        <v>234.1803000000001</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>47290</v>
+      </c>
+      <c r="C13" t="n">
+        <v>47290</v>
+      </c>
+      <c r="D13" t="n">
+        <v>47290</v>
+      </c>
+      <c r="E13" t="n">
+        <v>47290</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.2521</v>
+      </c>
+      <c r="G13" t="n">
+        <v>233.9282000000001</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>46960</v>
+      </c>
+      <c r="C14" t="n">
+        <v>46230</v>
+      </c>
+      <c r="D14" t="n">
+        <v>46960</v>
+      </c>
+      <c r="E14" t="n">
+        <v>46230</v>
+      </c>
+      <c r="F14" t="n">
+        <v>397.337</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-163.4087999999999</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>47180</v>
+      </c>
+      <c r="C15" t="n">
+        <v>47520</v>
+      </c>
+      <c r="D15" t="n">
+        <v>47520</v>
+      </c>
+      <c r="E15" t="n">
+        <v>47170</v>
+      </c>
+      <c r="F15" t="n">
+        <v>7.8228</v>
+      </c>
+      <c r="G15" t="n">
+        <v>-155.5859999999999</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>47520</v>
+      </c>
+      <c r="C16" t="n">
+        <v>47920</v>
+      </c>
+      <c r="D16" t="n">
+        <v>47940</v>
+      </c>
+      <c r="E16" t="n">
+        <v>47490</v>
+      </c>
+      <c r="F16" t="n">
+        <v>167.2946</v>
+      </c>
+      <c r="G16" t="n">
+        <v>11.7086000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>46800</v>
+      </c>
+      <c r="C17" t="n">
+        <v>46800</v>
+      </c>
+      <c r="D17" t="n">
+        <v>46800</v>
+      </c>
+      <c r="E17" t="n">
+        <v>46800</v>
+      </c>
+      <c r="F17" t="n">
+        <v>6.8356</v>
+      </c>
+      <c r="G17" t="n">
+        <v>4.873000000000103</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>47480</v>
+      </c>
+      <c r="C18" t="n">
+        <v>47450</v>
+      </c>
+      <c r="D18" t="n">
+        <v>47790</v>
+      </c>
+      <c r="E18" t="n">
+        <v>47450</v>
+      </c>
+      <c r="F18" t="n">
+        <v>16.6489</v>
+      </c>
+      <c r="G18" t="n">
+        <v>21.52190000000011</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>47440</v>
+      </c>
+      <c r="C19" t="n">
+        <v>47410</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47850</v>
+      </c>
+      <c r="E19" t="n">
+        <v>47410</v>
+      </c>
+      <c r="F19" t="n">
+        <v>83.57486102</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-62.0529610199999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>47430</v>
+      </c>
+      <c r="C20" t="n">
+        <v>46940</v>
+      </c>
+      <c r="D20" t="n">
+        <v>47430</v>
+      </c>
+      <c r="E20" t="n">
+        <v>46940</v>
+      </c>
+      <c r="F20" t="n">
+        <v>90.54949999999999</v>
+      </c>
+      <c r="G20" t="n">
+        <v>-152.6024610199999</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>46880</v>
+      </c>
+      <c r="C21" t="n">
+        <v>46880</v>
+      </c>
+      <c r="D21" t="n">
+        <v>46880</v>
+      </c>
+      <c r="E21" t="n">
+        <v>46880</v>
+      </c>
+      <c r="F21" t="n">
+        <v>13.5176</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-166.1200610199999</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>46870</v>
+      </c>
+      <c r="C22" t="n">
+        <v>47110</v>
+      </c>
+      <c r="D22" t="n">
+        <v>47110</v>
+      </c>
+      <c r="E22" t="n">
+        <v>46870</v>
+      </c>
+      <c r="F22" t="n">
+        <v>21.7819</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-144.3381610199999</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>46430</v>
+      </c>
+      <c r="C23" t="n">
+        <v>46430</v>
+      </c>
+      <c r="D23" t="n">
+        <v>46430</v>
+      </c>
+      <c r="E23" t="n">
+        <v>46430</v>
+      </c>
+      <c r="F23" t="n">
+        <v>12.2601</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-156.5982610199999</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>46930</v>
+      </c>
+      <c r="C24" t="n">
+        <v>46880</v>
+      </c>
+      <c r="D24" t="n">
+        <v>46930</v>
+      </c>
+      <c r="E24" t="n">
+        <v>46880</v>
+      </c>
+      <c r="F24" t="n">
+        <v>22.7089</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-133.8893610199999</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>47120</v>
+      </c>
+      <c r="C25" t="n">
+        <v>47210</v>
+      </c>
+      <c r="D25" t="n">
+        <v>47210</v>
+      </c>
+      <c r="E25" t="n">
+        <v>47120</v>
+      </c>
+      <c r="F25" t="n">
+        <v>33.804</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-100.0853610199999</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>47050</v>
+      </c>
+      <c r="C26" t="n">
+        <v>47050</v>
+      </c>
+      <c r="D26" t="n">
+        <v>47050</v>
+      </c>
+      <c r="E26" t="n">
+        <v>47050</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.8205</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-101.9058610199999</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>47050</v>
+      </c>
+      <c r="C27" t="n">
+        <v>47050</v>
+      </c>
+      <c r="D27" t="n">
+        <v>47050</v>
+      </c>
+      <c r="E27" t="n">
+        <v>47050</v>
+      </c>
+      <c r="F27" t="n">
+        <v>2.1117</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-101.9058610199999</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>47080</v>
+      </c>
+      <c r="C28" t="n">
+        <v>47050</v>
+      </c>
+      <c r="D28" t="n">
+        <v>47080</v>
+      </c>
+      <c r="E28" t="n">
+        <v>47050</v>
+      </c>
+      <c r="F28" t="n">
+        <v>5.8126</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-101.9058610199999</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>47050</v>
+      </c>
+      <c r="C29" t="n">
+        <v>47050</v>
+      </c>
+      <c r="D29" t="n">
+        <v>47050</v>
+      </c>
+      <c r="E29" t="n">
+        <v>47050</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0.3009</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-101.9058610199999</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>47060</v>
+      </c>
+      <c r="C30" t="n">
+        <v>47060</v>
+      </c>
+      <c r="D30" t="n">
+        <v>47060</v>
+      </c>
+      <c r="E30" t="n">
+        <v>47060</v>
+      </c>
+      <c r="F30" t="n">
+        <v>2.5505</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-99.35536101999988</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>47060</v>
+      </c>
+      <c r="C31" t="n">
+        <v>47340</v>
+      </c>
+      <c r="D31" t="n">
+        <v>47340</v>
+      </c>
+      <c r="E31" t="n">
+        <v>47050</v>
+      </c>
+      <c r="F31" t="n">
+        <v>5.174</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-94.18136101999987</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>46890</v>
+      </c>
+      <c r="C32" t="n">
+        <v>46890</v>
+      </c>
+      <c r="D32" t="n">
+        <v>46890</v>
+      </c>
+      <c r="E32" t="n">
+        <v>46890</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-95.03136101999986</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>46890</v>
+      </c>
+      <c r="C33" t="n">
+        <v>46890</v>
+      </c>
+      <c r="D33" t="n">
+        <v>46890</v>
+      </c>
+      <c r="E33" t="n">
+        <v>46890</v>
+      </c>
+      <c r="F33" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-95.03136101999986</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>46420</v>
+      </c>
+      <c r="C34" t="n">
+        <v>46410</v>
+      </c>
+      <c r="D34" t="n">
+        <v>46420</v>
+      </c>
+      <c r="E34" t="n">
+        <v>46410</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.355</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-96.38636101999987</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>46260</v>
+      </c>
+      <c r="C35" t="n">
+        <v>46240</v>
+      </c>
+      <c r="D35" t="n">
+        <v>46260</v>
+      </c>
+      <c r="E35" t="n">
+        <v>46240</v>
+      </c>
+      <c r="F35" t="n">
+        <v>5.553</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-101.9393610199999</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>46570</v>
+      </c>
+      <c r="C36" t="n">
+        <v>46610</v>
+      </c>
+      <c r="D36" t="n">
+        <v>46610</v>
+      </c>
+      <c r="E36" t="n">
+        <v>46570</v>
+      </c>
+      <c r="F36" t="n">
+        <v>6.8326</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-95.10676101999987</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>46260</v>
+      </c>
+      <c r="C37" t="n">
+        <v>46260</v>
+      </c>
+      <c r="D37" t="n">
+        <v>46260</v>
+      </c>
+      <c r="E37" t="n">
+        <v>46260</v>
+      </c>
+      <c r="F37" t="n">
+        <v>1.9395</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-97.04626101999986</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>46600</v>
+      </c>
+      <c r="C38" t="n">
+        <v>46600</v>
+      </c>
+      <c r="D38" t="n">
+        <v>46600</v>
+      </c>
+      <c r="E38" t="n">
+        <v>46600</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.0252</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-95.02106101999986</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>46730</v>
+      </c>
+      <c r="C39" t="n">
+        <v>46730</v>
+      </c>
+      <c r="D39" t="n">
+        <v>46730</v>
+      </c>
+      <c r="E39" t="n">
+        <v>46730</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0.0149</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-95.00616101999987</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>46240</v>
+      </c>
+      <c r="C40" t="n">
+        <v>46240</v>
+      </c>
+      <c r="D40" t="n">
+        <v>46240</v>
+      </c>
+      <c r="E40" t="n">
+        <v>46240</v>
+      </c>
+      <c r="F40" t="n">
+        <v>19.071</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-114.0771610199999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>46380</v>
+      </c>
+      <c r="C41" t="n">
+        <v>46380</v>
+      </c>
+      <c r="D41" t="n">
+        <v>46380</v>
+      </c>
+      <c r="E41" t="n">
+        <v>46380</v>
+      </c>
+      <c r="F41" t="n">
+        <v>4.6508</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-109.4263610199999</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>46370</v>
+      </c>
+      <c r="C42" t="n">
+        <v>46370</v>
+      </c>
+      <c r="D42" t="n">
+        <v>46370</v>
+      </c>
+      <c r="E42" t="n">
+        <v>46370</v>
+      </c>
+      <c r="F42" t="n">
+        <v>4.6507</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-114.0770610199999</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>46370</v>
+      </c>
+      <c r="C43" t="n">
+        <v>46350</v>
+      </c>
+      <c r="D43" t="n">
+        <v>46370</v>
+      </c>
+      <c r="E43" t="n">
+        <v>46350</v>
+      </c>
+      <c r="F43" t="n">
+        <v>22.6534</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-136.7304610199999</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>46350</v>
+      </c>
+      <c r="C44" t="n">
+        <v>46340</v>
+      </c>
+      <c r="D44" t="n">
+        <v>46350</v>
+      </c>
+      <c r="E44" t="n">
+        <v>46340</v>
+      </c>
+      <c r="F44" t="n">
+        <v>11.1667</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-147.8971610199999</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>46510</v>
+      </c>
+      <c r="C45" t="n">
+        <v>46510</v>
+      </c>
+      <c r="D45" t="n">
+        <v>46510</v>
+      </c>
+      <c r="E45" t="n">
+        <v>46510</v>
+      </c>
+      <c r="F45" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-147.8735610199999</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45930</v>
+      </c>
+      <c r="C46" t="n">
+        <v>45930</v>
+      </c>
+      <c r="D46" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E46" t="n">
+        <v>45930</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1.759</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-149.6325610199999</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>45930</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45920</v>
+      </c>
+      <c r="D47" t="n">
+        <v>45930</v>
+      </c>
+      <c r="E47" t="n">
+        <v>45920</v>
+      </c>
+      <c r="F47" t="n">
+        <v>12.9607</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-162.5932610199999</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>46270</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46280</v>
+      </c>
+      <c r="D48" t="n">
+        <v>46280</v>
+      </c>
+      <c r="E48" t="n">
+        <v>46270</v>
+      </c>
+      <c r="F48" t="n">
+        <v>5.5504</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-157.0428610199999</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>46270</v>
+      </c>
+      <c r="C49" t="n">
+        <v>46870</v>
+      </c>
+      <c r="D49" t="n">
+        <v>46870</v>
+      </c>
+      <c r="E49" t="n">
+        <v>46270</v>
+      </c>
+      <c r="F49" t="n">
+        <v>5.56</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-151.4828610199999</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>45850</v>
+      </c>
+      <c r="C50" t="n">
+        <v>45850</v>
+      </c>
+      <c r="D50" t="n">
+        <v>45850</v>
+      </c>
+      <c r="E50" t="n">
+        <v>45850</v>
+      </c>
+      <c r="F50" t="n">
+        <v>0.0236</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-151.5064610199998</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>46660</v>
+      </c>
+      <c r="C51" t="n">
+        <v>46580</v>
+      </c>
+      <c r="D51" t="n">
+        <v>46660</v>
+      </c>
+      <c r="E51" t="n">
+        <v>46580</v>
+      </c>
+      <c r="F51" t="n">
+        <v>5.0933</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-146.4131610199998</v>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>45850</v>
+      </c>
+      <c r="J51" t="n">
+        <v>45850</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>46480</v>
+      </c>
+      <c r="C52" t="n">
+        <v>46480</v>
+      </c>
+      <c r="D52" t="n">
+        <v>46480</v>
+      </c>
+      <c r="E52" t="n">
+        <v>46480</v>
+      </c>
+      <c r="F52" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G52" t="n">
+        <v>-146.9131610199998</v>
+      </c>
+      <c r="H52" t="n">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>45850</v>
+      </c>
+      <c r="K52" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>48620</v>
-      </c>
-      <c r="C5" t="n">
-        <v>48660</v>
-      </c>
-      <c r="D5" t="n">
-        <v>48660</v>
-      </c>
-      <c r="E5" t="n">
-        <v>48620</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6.7919</v>
-      </c>
-      <c r="G5" t="n">
-        <v>251.4903000000001</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>46980</v>
-      </c>
-      <c r="J5" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K5" t="inlineStr">
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>46030</v>
+      </c>
+      <c r="C53" t="n">
+        <v>46450</v>
+      </c>
+      <c r="D53" t="n">
+        <v>46450</v>
+      </c>
+      <c r="E53" t="n">
+        <v>46030</v>
+      </c>
+      <c r="F53" t="n">
+        <v>33.43550053</v>
+      </c>
+      <c r="G53" t="n">
+        <v>-180.3486615499999</v>
+      </c>
+      <c r="H53" t="n">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>45850</v>
+      </c>
+      <c r="K53" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>48660</v>
-      </c>
-      <c r="C6" t="n">
-        <v>49190</v>
-      </c>
-      <c r="D6" t="n">
-        <v>49190</v>
-      </c>
-      <c r="E6" t="n">
-        <v>48660</v>
-      </c>
-      <c r="F6" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" t="n">
-        <v>252.4903000000001</v>
-      </c>
-      <c r="H6" t="n">
-        <v>1</v>
-      </c>
-      <c r="I6" t="n">
-        <v>48660</v>
-      </c>
-      <c r="J6" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K6" t="inlineStr">
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>46450</v>
+      </c>
+      <c r="C54" t="n">
+        <v>46450</v>
+      </c>
+      <c r="D54" t="n">
+        <v>46450</v>
+      </c>
+      <c r="E54" t="n">
+        <v>46450</v>
+      </c>
+      <c r="F54" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G54" t="n">
+        <v>-180.3486615499999</v>
+      </c>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>46290</v>
+      </c>
+      <c r="C55" t="n">
+        <v>46290</v>
+      </c>
+      <c r="D55" t="n">
+        <v>46290</v>
+      </c>
+      <c r="E55" t="n">
+        <v>46290</v>
+      </c>
+      <c r="F55" t="n">
+        <v>5</v>
+      </c>
+      <c r="G55" t="n">
+        <v>-185.3486615499999</v>
+      </c>
+      <c r="H55" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" t="n">
+        <v>46450</v>
+      </c>
+      <c r="J55" t="n">
+        <v>46450</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>46890</v>
+      </c>
+      <c r="C56" t="n">
+        <v>46310</v>
+      </c>
+      <c r="D56" t="n">
+        <v>46890</v>
+      </c>
+      <c r="E56" t="n">
+        <v>46310</v>
+      </c>
+      <c r="F56" t="n">
+        <v>137.8372</v>
+      </c>
+      <c r="G56" t="n">
+        <v>-47.51146154999986</v>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" t="n">
+        <v>46290</v>
+      </c>
+      <c r="J56" t="n">
+        <v>46450</v>
+      </c>
+      <c r="K56" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>48300</v>
-      </c>
-      <c r="C7" t="n">
-        <v>48300</v>
-      </c>
-      <c r="D7" t="n">
-        <v>48300</v>
-      </c>
-      <c r="E7" t="n">
-        <v>48300</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.075</v>
-      </c>
-      <c r="G7" t="n">
-        <v>252.4153000000001</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>49190</v>
-      </c>
-      <c r="J7" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>48150</v>
-      </c>
-      <c r="C8" t="n">
-        <v>48160</v>
-      </c>
-      <c r="D8" t="n">
-        <v>48160</v>
-      </c>
-      <c r="E8" t="n">
-        <v>48150</v>
-      </c>
-      <c r="F8" t="n">
-        <v>2.5383</v>
-      </c>
-      <c r="G8" t="n">
-        <v>249.8770000000001</v>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-      <c r="I8" t="n">
-        <v>48300</v>
-      </c>
-      <c r="J8" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>48100</v>
-      </c>
-      <c r="C9" t="n">
-        <v>48090</v>
-      </c>
-      <c r="D9" t="n">
-        <v>48100</v>
-      </c>
-      <c r="E9" t="n">
-        <v>48090</v>
-      </c>
-      <c r="F9" t="n">
-        <v>14.0561</v>
-      </c>
-      <c r="G9" t="n">
-        <v>235.8209000000001</v>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-      <c r="I9" t="n">
-        <v>48160</v>
-      </c>
-      <c r="J9" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>47680</v>
-      </c>
-      <c r="C10" t="n">
-        <v>47680</v>
-      </c>
-      <c r="D10" t="n">
-        <v>47680</v>
-      </c>
-      <c r="E10" t="n">
-        <v>47680</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0.4036</v>
-      </c>
-      <c r="G10" t="n">
-        <v>235.4173000000001</v>
-      </c>
-      <c r="H10" t="n">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>48090</v>
-      </c>
-      <c r="J10" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>47680</v>
-      </c>
-      <c r="C11" t="n">
-        <v>47670</v>
-      </c>
-      <c r="D11" t="n">
-        <v>47680</v>
-      </c>
-      <c r="E11" t="n">
-        <v>47670</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0.396</v>
-      </c>
-      <c r="G11" t="n">
-        <v>235.0213000000001</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="n">
-        <v>47330</v>
-      </c>
-      <c r="C12" t="n">
-        <v>47330</v>
-      </c>
-      <c r="D12" t="n">
-        <v>47330</v>
-      </c>
-      <c r="E12" t="n">
-        <v>47330</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.841</v>
-      </c>
-      <c r="G12" t="n">
-        <v>234.1803000000001</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr"/>
-      <c r="J12" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="n">
-        <v>47290</v>
-      </c>
-      <c r="C13" t="n">
-        <v>47290</v>
-      </c>
-      <c r="D13" t="n">
-        <v>47290</v>
-      </c>
-      <c r="E13" t="n">
-        <v>47290</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.2521</v>
-      </c>
-      <c r="G13" t="n">
-        <v>233.9282000000001</v>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>47330</v>
-      </c>
-      <c r="J13" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="n">
-        <v>46960</v>
-      </c>
-      <c r="C14" t="n">
-        <v>46230</v>
-      </c>
-      <c r="D14" t="n">
-        <v>46960</v>
-      </c>
-      <c r="E14" t="n">
-        <v>46230</v>
-      </c>
-      <c r="F14" t="n">
-        <v>397.337</v>
-      </c>
-      <c r="G14" t="n">
-        <v>-163.4087999999999</v>
-      </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>47290</v>
-      </c>
-      <c r="J14" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="n">
-        <v>47180</v>
-      </c>
-      <c r="C15" t="n">
-        <v>47520</v>
-      </c>
-      <c r="D15" t="n">
-        <v>47520</v>
-      </c>
-      <c r="E15" t="n">
-        <v>47170</v>
-      </c>
-      <c r="F15" t="n">
-        <v>7.8228</v>
-      </c>
-      <c r="G15" t="n">
-        <v>-155.5859999999999</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
-      <c r="J15" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="n">
-        <v>47520</v>
-      </c>
-      <c r="C16" t="n">
-        <v>47920</v>
-      </c>
-      <c r="D16" t="n">
-        <v>47940</v>
-      </c>
-      <c r="E16" t="n">
-        <v>47490</v>
-      </c>
-      <c r="F16" t="n">
-        <v>167.2946</v>
-      </c>
-      <c r="G16" t="n">
-        <v>11.7086000000001</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="n">
-        <v>46800</v>
-      </c>
-      <c r="C17" t="n">
-        <v>46800</v>
-      </c>
-      <c r="D17" t="n">
-        <v>46800</v>
-      </c>
-      <c r="E17" t="n">
-        <v>46800</v>
-      </c>
-      <c r="F17" t="n">
-        <v>6.8356</v>
-      </c>
-      <c r="G17" t="n">
-        <v>4.873000000000103</v>
-      </c>
-      <c r="H17" t="n">
-        <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>47920</v>
-      </c>
-      <c r="J17" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="n">
-        <v>47480</v>
-      </c>
-      <c r="C18" t="n">
-        <v>47450</v>
-      </c>
-      <c r="D18" t="n">
-        <v>47790</v>
-      </c>
-      <c r="E18" t="n">
-        <v>47450</v>
-      </c>
-      <c r="F18" t="n">
-        <v>16.6489</v>
-      </c>
-      <c r="G18" t="n">
-        <v>21.52190000000011</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="n">
-        <v>47440</v>
-      </c>
-      <c r="C19" t="n">
-        <v>47410</v>
-      </c>
-      <c r="D19" t="n">
-        <v>47850</v>
-      </c>
-      <c r="E19" t="n">
-        <v>47410</v>
-      </c>
-      <c r="F19" t="n">
-        <v>83.57486102</v>
-      </c>
-      <c r="G19" t="n">
-        <v>-62.0529610199999</v>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-      <c r="I19" t="n">
-        <v>47450</v>
-      </c>
-      <c r="J19" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>47430</v>
-      </c>
-      <c r="C20" t="n">
-        <v>46940</v>
-      </c>
-      <c r="D20" t="n">
-        <v>47430</v>
-      </c>
-      <c r="E20" t="n">
-        <v>46940</v>
-      </c>
-      <c r="F20" t="n">
-        <v>90.54949999999999</v>
-      </c>
-      <c r="G20" t="n">
-        <v>-152.6024610199999</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="inlineStr"/>
-      <c r="J20" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>46880</v>
-      </c>
-      <c r="C21" t="n">
-        <v>46880</v>
-      </c>
-      <c r="D21" t="n">
-        <v>46880</v>
-      </c>
-      <c r="E21" t="n">
-        <v>46880</v>
-      </c>
-      <c r="F21" t="n">
-        <v>13.5176</v>
-      </c>
-      <c r="G21" t="n">
-        <v>-166.1200610199999</v>
-      </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>46940</v>
-      </c>
-      <c r="J21" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>46870</v>
-      </c>
-      <c r="C22" t="n">
-        <v>47110</v>
-      </c>
-      <c r="D22" t="n">
-        <v>47110</v>
-      </c>
-      <c r="E22" t="n">
-        <v>46870</v>
-      </c>
-      <c r="F22" t="n">
-        <v>21.7819</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-144.3381610199999</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>46880</v>
-      </c>
-      <c r="J22" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>46430</v>
-      </c>
-      <c r="C23" t="n">
-        <v>46430</v>
-      </c>
-      <c r="D23" t="n">
-        <v>46430</v>
-      </c>
-      <c r="E23" t="n">
-        <v>46430</v>
-      </c>
-      <c r="F23" t="n">
-        <v>12.2601</v>
-      </c>
-      <c r="G23" t="n">
-        <v>-156.5982610199999</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>47110</v>
-      </c>
-      <c r="J23" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>46930</v>
-      </c>
-      <c r="C24" t="n">
-        <v>46880</v>
-      </c>
-      <c r="D24" t="n">
-        <v>46930</v>
-      </c>
-      <c r="E24" t="n">
-        <v>46880</v>
-      </c>
-      <c r="F24" t="n">
-        <v>22.7089</v>
-      </c>
-      <c r="G24" t="n">
-        <v>-133.8893610199999</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>46430</v>
-      </c>
-      <c r="J24" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>47120</v>
-      </c>
-      <c r="C25" t="n">
-        <v>47210</v>
-      </c>
-      <c r="D25" t="n">
-        <v>47210</v>
-      </c>
-      <c r="E25" t="n">
-        <v>47120</v>
-      </c>
-      <c r="F25" t="n">
-        <v>33.804</v>
-      </c>
-      <c r="G25" t="n">
-        <v>-100.0853610199999</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>46880</v>
-      </c>
-      <c r="J25" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>47050</v>
-      </c>
-      <c r="C26" t="n">
-        <v>47050</v>
-      </c>
-      <c r="D26" t="n">
-        <v>47050</v>
-      </c>
-      <c r="E26" t="n">
-        <v>47050</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1.8205</v>
-      </c>
-      <c r="G26" t="n">
-        <v>-101.9058610199999</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>47210</v>
-      </c>
-      <c r="J26" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>47050</v>
-      </c>
-      <c r="C27" t="n">
-        <v>47050</v>
-      </c>
-      <c r="D27" t="n">
-        <v>47050</v>
-      </c>
-      <c r="E27" t="n">
-        <v>47050</v>
-      </c>
-      <c r="F27" t="n">
-        <v>2.1117</v>
-      </c>
-      <c r="G27" t="n">
-        <v>-101.9058610199999</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>47050</v>
-      </c>
-      <c r="J27" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>47080</v>
-      </c>
-      <c r="C28" t="n">
-        <v>47050</v>
-      </c>
-      <c r="D28" t="n">
-        <v>47080</v>
-      </c>
-      <c r="E28" t="n">
-        <v>47050</v>
-      </c>
-      <c r="F28" t="n">
-        <v>5.8126</v>
-      </c>
-      <c r="G28" t="n">
-        <v>-101.9058610199999</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>47050</v>
-      </c>
-      <c r="J28" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>47050</v>
-      </c>
-      <c r="C29" t="n">
-        <v>47050</v>
-      </c>
-      <c r="D29" t="n">
-        <v>47050</v>
-      </c>
-      <c r="E29" t="n">
-        <v>47050</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.3009</v>
-      </c>
-      <c r="G29" t="n">
-        <v>-101.9058610199999</v>
-      </c>
-      <c r="H29" t="n">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>47050</v>
-      </c>
-      <c r="J29" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>47060</v>
-      </c>
-      <c r="C30" t="n">
-        <v>47060</v>
-      </c>
-      <c r="D30" t="n">
-        <v>47060</v>
-      </c>
-      <c r="E30" t="n">
-        <v>47060</v>
-      </c>
-      <c r="F30" t="n">
-        <v>2.5505</v>
-      </c>
-      <c r="G30" t="n">
-        <v>-99.35536101999988</v>
-      </c>
-      <c r="H30" t="n">
-        <v>1</v>
-      </c>
-      <c r="I30" t="n">
-        <v>47050</v>
-      </c>
-      <c r="J30" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>47060</v>
-      </c>
-      <c r="C31" t="n">
-        <v>47340</v>
-      </c>
-      <c r="D31" t="n">
-        <v>47340</v>
-      </c>
-      <c r="E31" t="n">
-        <v>47050</v>
-      </c>
-      <c r="F31" t="n">
-        <v>5.174</v>
-      </c>
-      <c r="G31" t="n">
-        <v>-94.18136101999987</v>
-      </c>
-      <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>47060</v>
-      </c>
-      <c r="J31" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>46890</v>
-      </c>
-      <c r="C32" t="n">
-        <v>46890</v>
-      </c>
-      <c r="D32" t="n">
-        <v>46890</v>
-      </c>
-      <c r="E32" t="n">
-        <v>46890</v>
-      </c>
-      <c r="F32" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="G32" t="n">
-        <v>-95.03136101999986</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="inlineStr"/>
-      <c r="J32" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>46890</v>
-      </c>
-      <c r="C33" t="n">
-        <v>46890</v>
-      </c>
-      <c r="D33" t="n">
-        <v>46890</v>
-      </c>
-      <c r="E33" t="n">
-        <v>46890</v>
-      </c>
-      <c r="F33" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="G33" t="n">
-        <v>-95.03136101999986</v>
-      </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>46420</v>
-      </c>
-      <c r="C34" t="n">
-        <v>46410</v>
-      </c>
-      <c r="D34" t="n">
-        <v>46420</v>
-      </c>
-      <c r="E34" t="n">
-        <v>46410</v>
-      </c>
-      <c r="F34" t="n">
-        <v>1.355</v>
-      </c>
-      <c r="G34" t="n">
-        <v>-96.38636101999987</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>46260</v>
-      </c>
-      <c r="C35" t="n">
-        <v>46240</v>
-      </c>
-      <c r="D35" t="n">
-        <v>46260</v>
-      </c>
-      <c r="E35" t="n">
-        <v>46240</v>
-      </c>
-      <c r="F35" t="n">
-        <v>5.553</v>
-      </c>
-      <c r="G35" t="n">
-        <v>-101.9393610199999</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>46570</v>
-      </c>
-      <c r="C36" t="n">
-        <v>46610</v>
-      </c>
-      <c r="D36" t="n">
-        <v>46610</v>
-      </c>
-      <c r="E36" t="n">
-        <v>46570</v>
-      </c>
-      <c r="F36" t="n">
-        <v>6.8326</v>
-      </c>
-      <c r="G36" t="n">
-        <v>-95.10676101999987</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>46240</v>
-      </c>
-      <c r="J36" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>46260</v>
-      </c>
-      <c r="C37" t="n">
-        <v>46260</v>
-      </c>
-      <c r="D37" t="n">
-        <v>46260</v>
-      </c>
-      <c r="E37" t="n">
-        <v>46260</v>
-      </c>
-      <c r="F37" t="n">
-        <v>1.9395</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-97.04626101999986</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>46610</v>
-      </c>
-      <c r="J37" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>46600</v>
-      </c>
-      <c r="C38" t="n">
-        <v>46600</v>
-      </c>
-      <c r="D38" t="n">
-        <v>46600</v>
-      </c>
-      <c r="E38" t="n">
-        <v>46600</v>
-      </c>
-      <c r="F38" t="n">
-        <v>2.0252</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-95.02106101999986</v>
-      </c>
-      <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>46260</v>
-      </c>
-      <c r="J38" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>46730</v>
-      </c>
-      <c r="C39" t="n">
-        <v>46730</v>
-      </c>
-      <c r="D39" t="n">
-        <v>46730</v>
-      </c>
-      <c r="E39" t="n">
-        <v>46730</v>
-      </c>
-      <c r="F39" t="n">
-        <v>0.0149</v>
-      </c>
-      <c r="G39" t="n">
-        <v>-95.00616101999987</v>
-      </c>
-      <c r="H39" t="n">
-        <v>1</v>
-      </c>
-      <c r="I39" t="n">
-        <v>46600</v>
-      </c>
-      <c r="J39" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>46240</v>
-      </c>
-      <c r="C40" t="n">
-        <v>46240</v>
-      </c>
-      <c r="D40" t="n">
-        <v>46240</v>
-      </c>
-      <c r="E40" t="n">
-        <v>46240</v>
-      </c>
-      <c r="F40" t="n">
-        <v>19.071</v>
-      </c>
-      <c r="G40" t="n">
-        <v>-114.0771610199999</v>
-      </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>46730</v>
-      </c>
-      <c r="J40" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>46380</v>
-      </c>
-      <c r="C41" t="n">
-        <v>46380</v>
-      </c>
-      <c r="D41" t="n">
-        <v>46380</v>
-      </c>
-      <c r="E41" t="n">
-        <v>46380</v>
-      </c>
-      <c r="F41" t="n">
-        <v>4.6508</v>
-      </c>
-      <c r="G41" t="n">
-        <v>-109.4263610199999</v>
-      </c>
-      <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>46240</v>
-      </c>
-      <c r="J41" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>46370</v>
-      </c>
-      <c r="C42" t="n">
-        <v>46370</v>
-      </c>
-      <c r="D42" t="n">
-        <v>46370</v>
-      </c>
-      <c r="E42" t="n">
-        <v>46370</v>
-      </c>
-      <c r="F42" t="n">
-        <v>4.6507</v>
-      </c>
-      <c r="G42" t="n">
-        <v>-114.0770610199999</v>
-      </c>
-      <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>46380</v>
-      </c>
-      <c r="J42" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>46370</v>
-      </c>
-      <c r="C43" t="n">
-        <v>46350</v>
-      </c>
-      <c r="D43" t="n">
-        <v>46370</v>
-      </c>
-      <c r="E43" t="n">
-        <v>46350</v>
-      </c>
-      <c r="F43" t="n">
-        <v>22.6534</v>
-      </c>
-      <c r="G43" t="n">
-        <v>-136.7304610199999</v>
-      </c>
-      <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>46370</v>
-      </c>
-      <c r="J43" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>46350</v>
-      </c>
-      <c r="C44" t="n">
-        <v>46340</v>
-      </c>
-      <c r="D44" t="n">
-        <v>46350</v>
-      </c>
-      <c r="E44" t="n">
-        <v>46340</v>
-      </c>
-      <c r="F44" t="n">
-        <v>11.1667</v>
-      </c>
-      <c r="G44" t="n">
-        <v>-147.8971610199999</v>
-      </c>
-      <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>46350</v>
-      </c>
-      <c r="J44" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>46510</v>
-      </c>
-      <c r="C45" t="n">
-        <v>46510</v>
-      </c>
-      <c r="D45" t="n">
-        <v>46510</v>
-      </c>
-      <c r="E45" t="n">
-        <v>46510</v>
-      </c>
-      <c r="F45" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-147.8735610199999</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>46340</v>
-      </c>
-      <c r="J45" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45930</v>
-      </c>
-      <c r="C46" t="n">
-        <v>45930</v>
-      </c>
-      <c r="D46" t="n">
-        <v>45930</v>
-      </c>
-      <c r="E46" t="n">
-        <v>45930</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1.759</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-149.6325610199999</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>46510</v>
-      </c>
-      <c r="J46" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>45930</v>
-      </c>
-      <c r="C47" t="n">
-        <v>45920</v>
-      </c>
-      <c r="D47" t="n">
-        <v>45930</v>
-      </c>
-      <c r="E47" t="n">
-        <v>45920</v>
-      </c>
-      <c r="F47" t="n">
-        <v>12.9607</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-162.5932610199999</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>45930</v>
-      </c>
-      <c r="J47" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>46270</v>
-      </c>
-      <c r="C48" t="n">
-        <v>46280</v>
-      </c>
-      <c r="D48" t="n">
-        <v>46280</v>
-      </c>
-      <c r="E48" t="n">
-        <v>46270</v>
-      </c>
-      <c r="F48" t="n">
-        <v>5.5504</v>
-      </c>
-      <c r="G48" t="n">
-        <v>-157.0428610199999</v>
-      </c>
-      <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>45920</v>
-      </c>
-      <c r="J48" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>46270</v>
-      </c>
-      <c r="C49" t="n">
-        <v>46870</v>
-      </c>
-      <c r="D49" t="n">
-        <v>46870</v>
-      </c>
-      <c r="E49" t="n">
-        <v>46270</v>
-      </c>
-      <c r="F49" t="n">
-        <v>5.56</v>
-      </c>
-      <c r="G49" t="n">
-        <v>-151.4828610199999</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>46280</v>
-      </c>
-      <c r="J49" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>45850</v>
-      </c>
-      <c r="C50" t="n">
-        <v>45850</v>
-      </c>
-      <c r="D50" t="n">
-        <v>45850</v>
-      </c>
-      <c r="E50" t="n">
-        <v>45850</v>
-      </c>
-      <c r="F50" t="n">
-        <v>0.0236</v>
-      </c>
-      <c r="G50" t="n">
-        <v>-151.5064610199998</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>46870</v>
-      </c>
-      <c r="J50" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>46660</v>
-      </c>
-      <c r="C51" t="n">
-        <v>46580</v>
-      </c>
-      <c r="D51" t="n">
-        <v>46660</v>
-      </c>
-      <c r="E51" t="n">
-        <v>46580</v>
-      </c>
-      <c r="F51" t="n">
-        <v>5.0933</v>
-      </c>
-      <c r="G51" t="n">
-        <v>-146.4131610199998</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>45850</v>
-      </c>
-      <c r="J51" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>50</v>
-      </c>
-      <c r="B52" t="n">
-        <v>46480</v>
-      </c>
-      <c r="C52" t="n">
-        <v>46480</v>
-      </c>
-      <c r="D52" t="n">
-        <v>46480</v>
-      </c>
-      <c r="E52" t="n">
-        <v>46480</v>
-      </c>
-      <c r="F52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G52" t="n">
-        <v>-146.9131610199998</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>46580</v>
-      </c>
-      <c r="J52" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>51</v>
-      </c>
-      <c r="B53" t="n">
-        <v>46030</v>
-      </c>
-      <c r="C53" t="n">
-        <v>46450</v>
-      </c>
-      <c r="D53" t="n">
-        <v>46450</v>
-      </c>
-      <c r="E53" t="n">
-        <v>46030</v>
-      </c>
-      <c r="F53" t="n">
-        <v>33.43550053</v>
-      </c>
-      <c r="G53" t="n">
-        <v>-180.3486615499999</v>
-      </c>
-      <c r="H53" t="n">
-        <v>1</v>
-      </c>
-      <c r="I53" t="n">
-        <v>46480</v>
-      </c>
-      <c r="J53" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>52</v>
-      </c>
-      <c r="B54" t="n">
-        <v>46450</v>
-      </c>
-      <c r="C54" t="n">
-        <v>46450</v>
-      </c>
-      <c r="D54" t="n">
-        <v>46450</v>
-      </c>
-      <c r="E54" t="n">
-        <v>46450</v>
-      </c>
-      <c r="F54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G54" t="n">
-        <v>-180.3486615499999</v>
-      </c>
-      <c r="H54" t="n">
-        <v>1</v>
-      </c>
-      <c r="I54" t="n">
-        <v>46450</v>
-      </c>
-      <c r="J54" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>53</v>
-      </c>
-      <c r="B55" t="n">
-        <v>46290</v>
-      </c>
-      <c r="C55" t="n">
-        <v>46290</v>
-      </c>
-      <c r="D55" t="n">
-        <v>46290</v>
-      </c>
-      <c r="E55" t="n">
-        <v>46290</v>
-      </c>
-      <c r="F55" t="n">
-        <v>5</v>
-      </c>
-      <c r="G55" t="n">
-        <v>-185.3486615499999</v>
-      </c>
-      <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>46450</v>
-      </c>
-      <c r="J55" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>54</v>
-      </c>
-      <c r="B56" t="n">
-        <v>46890</v>
-      </c>
-      <c r="C56" t="n">
-        <v>46310</v>
-      </c>
-      <c r="D56" t="n">
-        <v>46890</v>
-      </c>
-      <c r="E56" t="n">
-        <v>46310</v>
-      </c>
-      <c r="F56" t="n">
-        <v>137.8372</v>
-      </c>
-      <c r="G56" t="n">
-        <v>-47.51146154999986</v>
-      </c>
-      <c r="H56" t="n">
-        <v>1</v>
-      </c>
-      <c r="I56" t="n">
-        <v>46290</v>
-      </c>
-      <c r="J56" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2680,7 +2300,7 @@
         <v>46310</v>
       </c>
       <c r="J57" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2721,7 +2341,7 @@
         <v>46780</v>
       </c>
       <c r="J58" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2762,7 +2382,7 @@
         <v>46460</v>
       </c>
       <c r="J59" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2803,7 +2423,7 @@
         <v>46200</v>
       </c>
       <c r="J60" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2838,13 +2458,11 @@
         <v>-27.32856753999987</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>46390</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2885,7 +2503,7 @@
         <v>46390</v>
       </c>
       <c r="J62" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2926,7 +2544,7 @@
         <v>46290</v>
       </c>
       <c r="J63" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2967,7 +2585,7 @@
         <v>46290</v>
       </c>
       <c r="J64" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -3008,7 +2626,7 @@
         <v>46300</v>
       </c>
       <c r="J65" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -3049,7 +2667,7 @@
         <v>46300</v>
       </c>
       <c r="J66" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -3090,7 +2708,7 @@
         <v>46040</v>
       </c>
       <c r="J67" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -3131,7 +2749,7 @@
         <v>46030</v>
       </c>
       <c r="J68" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -3172,7 +2790,7 @@
         <v>46100</v>
       </c>
       <c r="J69" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -3213,7 +2831,7 @@
         <v>46260</v>
       </c>
       <c r="J70" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -3254,7 +2872,7 @@
         <v>46960</v>
       </c>
       <c r="J71" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -3295,7 +2913,7 @@
         <v>46330</v>
       </c>
       <c r="J72" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -3336,7 +2954,7 @@
         <v>46330</v>
       </c>
       <c r="J73" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -3377,7 +2995,7 @@
         <v>46960</v>
       </c>
       <c r="J74" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3412,13 +3030,11 @@
         <v>-144.4084675399999</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
-      </c>
-      <c r="I75" t="n">
-        <v>45980</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3459,7 +3075,7 @@
         <v>45950</v>
       </c>
       <c r="J76" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3500,7 +3116,7 @@
         <v>45810</v>
       </c>
       <c r="J77" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3541,7 +3157,7 @@
         <v>46080</v>
       </c>
       <c r="J78" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3582,7 +3198,7 @@
         <v>46570</v>
       </c>
       <c r="J79" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3617,13 +3233,11 @@
         <v>-62.0476675399999</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>46530</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3664,7 +3278,7 @@
         <v>46440</v>
       </c>
       <c r="J81" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3699,13 +3313,11 @@
         <v>-69.1928675399999</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>46510</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3740,13 +3352,11 @@
         <v>-56.1010675399999</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>46400</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3781,13 +3391,11 @@
         <v>-38.45046753999989</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>46430</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3822,13 +3430,11 @@
         <v>2.049532460000108</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="n">
         <v>46450</v>
-      </c>
-      <c r="J85" t="n">
-        <v>46250</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3863,13 +3469,11 @@
         <v>8.949532460000109</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>46870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3904,13 +3508,11 @@
         <v>42.36423246000011</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>46960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3945,13 +3547,11 @@
         <v>42.07193246000011</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>47000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3986,13 +3586,11 @@
         <v>43.00293246000011</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>46990</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -4027,13 +3625,11 @@
         <v>43.00293246000011</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>47000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -4068,13 +3664,11 @@
         <v>49.07163246000011</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>47000</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -4109,13 +3703,11 @@
         <v>-16.67446753999989</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>47110</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -4150,13 +3742,11 @@
         <v>-16.67446753999989</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>46950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -4191,13 +3781,11 @@
         <v>-6.467967539999888</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>46950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -4232,13 +3820,11 @@
         <v>-6.639567539999888</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>47120</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -4273,13 +3859,11 @@
         <v>32.56693246000011</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>47060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -4314,13 +3898,11 @@
         <v>30.00333246000011</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>47600</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -4355,13 +3937,11 @@
         <v>55.47923246000011</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>47240</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -4396,13 +3976,11 @@
         <v>55.47923246000011</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>47720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4437,13 +4015,11 @@
         <v>55.47923246000011</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>47720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4478,13 +4054,11 @@
         <v>79.7942324600001</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>47720</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4523,7 +4097,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4558,13 +4132,11 @@
         <v>133.2958324600001</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>47790</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4599,13 +4171,11 @@
         <v>133.3196324600001</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>47350</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4640,13 +4210,11 @@
         <v>115.3806324600001</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>47770</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4681,13 +4249,11 @@
         <v>118.3366324600001</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>47270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4726,7 +4292,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4761,13 +4327,11 @@
         <v>170.9733324600001</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>47800</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4802,13 +4366,11 @@
         <v>170.9733324600001</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>48130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4843,13 +4405,11 @@
         <v>170.9733324600001</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>48130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4884,13 +4444,11 @@
         <v>170.1733324600001</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>48130</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4929,7 +4487,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4964,13 +4522,11 @@
         <v>164.8966324600001</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>47630</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -5009,7 +4565,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -5048,7 +4604,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -5087,7 +4643,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -5126,7 +4682,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -5165,7 +4721,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -5204,7 +4760,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -5243,7 +4799,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -5278,13 +4834,11 @@
         <v>54.42715326000011</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>47310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -5323,7 +4877,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -5358,13 +4912,11 @@
         <v>50.92715326000011</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>47270</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -5403,7 +4955,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -5442,7 +4994,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5477,13 +5029,11 @@
         <v>-93.20975517999989</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>47140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5522,7 +5072,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5563,7 +5113,7 @@
         <v>46960</v>
       </c>
       <c r="J128" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5604,7 +5154,7 @@
         <v>46950</v>
       </c>
       <c r="J129" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5639,13 +5189,11 @@
         <v>-33.2174551799999</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>47360</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5686,7 +5234,7 @@
         <v>46950</v>
       </c>
       <c r="J131" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5727,7 +5275,7 @@
         <v>46870</v>
       </c>
       <c r="J132" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5762,13 +5310,11 @@
         <v>59.67274591000008</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>47560</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5803,13 +5349,11 @@
         <v>59.67274591000008</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>47310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5844,13 +5388,11 @@
         <v>59.67274591000008</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>47310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5885,13 +5427,11 @@
         <v>59.67274591000008</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>47310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5926,13 +5466,11 @@
         <v>71.54314591000008</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>47310</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5967,13 +5505,11 @@
         <v>157.9742459100001</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>48100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -6008,13 +5544,11 @@
         <v>280.9918459100001</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>48140</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -6049,13 +5583,11 @@
         <v>282.0518459100001</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>48230</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -6094,7 +5626,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -6133,7 +5665,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -6172,7 +5704,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -6211,7 +5743,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -6250,7 +5782,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -6289,7 +5821,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -6328,7 +5860,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -6367,7 +5899,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -6406,7 +5938,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -6445,7 +5977,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6484,7 +6016,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6523,7 +6055,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6562,7 +6094,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6601,7 +6133,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6640,7 +6172,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6679,7 +6211,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6718,7 +6250,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6757,7 +6289,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6796,7 +6328,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6835,7 +6367,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6874,7 +6406,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6913,7 +6445,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6952,7 +6484,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6991,7 +6523,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -7030,7 +6562,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -7069,7 +6601,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -7108,7 +6640,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -7147,7 +6679,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -7186,7 +6718,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -7225,7 +6757,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -7264,7 +6796,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -7299,21 +6831,23 @@
         <v>2582.46605236</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>46250</v>
+        <v>46450</v>
       </c>
       <c r="K172" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+        <v>1.328692142088267</v>
+      </c>
+      <c r="M172" t="n">
+        <v>1.072846237731734</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -7338,17 +6872,11 @@
         <v>2387.63424739</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -7377,17 +6905,11 @@
         <v>2578.24974739</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -7416,17 +6938,11 @@
         <v>2393.88884932</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -7455,17 +6971,11 @@
         <v>2416.37763233</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -7494,17 +7004,11 @@
         <v>2230.96753233</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -7533,17 +7037,11 @@
         <v>1638.82803446</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -7572,17 +7070,11 @@
         <v>1957.51963446</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -7611,17 +7103,11 @@
         <v>2191.38373446</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -7650,17 +7136,11 @@
         <v>2110.35388634</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -7689,17 +7169,11 @@
         <v>2353.01330231</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -7731,14 +7205,8 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -7770,14 +7238,8 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -7809,14 +7271,8 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -7848,14 +7304,8 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -7887,14 +7337,8 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -7926,14 +7370,8 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -7965,14 +7403,8 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -8004,14 +7436,8 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -8043,14 +7469,8 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -8082,14 +7502,8 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -8121,14 +7535,8 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -8160,14 +7568,8 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -8199,14 +7601,8 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -8238,14 +7634,8 @@
         <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
-      <c r="J196" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -8277,20 +7667,12 @@
         <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
-      <c r="J197" t="n">
-        <v>46250</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
       <c r="L197" t="n">
-        <v>1.257702702702703</v>
-      </c>
-      <c r="M197" t="n">
-        <v>1.052108108108108</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -8381,7 +7763,7 @@
         <v>2408.031696309999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -8480,7 +7862,7 @@
         <v>2143.906996309999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -8513,7 +7895,7 @@
         <v>2100.930696309999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -8645,7 +8027,7 @@
         <v>2046.07298427</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I208" t="inlineStr"/>
       <c r="J208" t="inlineStr"/>
@@ -8678,7 +8060,7 @@
         <v>2100.841484269999</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I209" t="inlineStr"/>
       <c r="J209" t="inlineStr"/>
@@ -8711,7 +8093,7 @@
         <v>2016.609984269999</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I210" t="inlineStr"/>
       <c r="J210" t="inlineStr"/>
@@ -8744,7 +8126,7 @@
         <v>2014.959384269999</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -8777,7 +8159,7 @@
         <v>2014.959384269999</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -8810,7 +8192,7 @@
         <v>2013.739384269999</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -8843,7 +8225,7 @@
         <v>1984.215284269999</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -8876,7 +8258,7 @@
         <v>1770.849984269999</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -8975,7 +8357,7 @@
         <v>1751.445084269999</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -9008,7 +8390,7 @@
         <v>1512.642484269999</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="inlineStr"/>
@@ -9041,7 +8423,7 @@
         <v>1633.888884269999</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="inlineStr"/>
@@ -9074,7 +8456,7 @@
         <v>1458.680984269999</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="inlineStr"/>
@@ -9107,7 +8489,7 @@
         <v>1536.399684269999</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -9140,7 +8522,7 @@
         <v>1667.346784269999</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -9173,7 +8555,7 @@
         <v>1756.611284269999</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -9206,7 +8588,7 @@
         <v>1753.611284269999</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -9239,7 +8621,7 @@
         <v>1776.37298427</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -9272,7 +8654,7 @@
         <v>1780.98398427</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -9305,7 +8687,7 @@
         <v>1765.52228427</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -9338,7 +8720,7 @@
         <v>1765.52228427</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -9371,7 +8753,7 @@
         <v>1765.52228427</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -9437,7 +8819,7 @@
         <v>2012.480984269999</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -9470,7 +8852,7 @@
         <v>2052.685684269999</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -10856,7 +10238,7 @@
         <v>2551.25788427</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="inlineStr"/>
@@ -10889,7 +10271,7 @@
         <v>2551.43208427</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="inlineStr"/>
@@ -11252,7 +10634,7 @@
         <v>2494.746484270001</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -11384,7 +10766,7 @@
         <v>2728.747183750001</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -11483,7 +10865,7 @@
         <v>2736.88738375</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -11549,7 +10931,7 @@
         <v>2739.67268375</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11747,7 +11129,7 @@
         <v>2731.987583750001</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -11780,7 +11162,7 @@
         <v>2739.292083750001</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -11813,7 +11195,7 @@
         <v>2703.006783750001</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -12044,7 +11426,7 @@
         <v>2552.037783750001</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
@@ -12077,7 +11459,7 @@
         <v>2537.404983750001</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -12110,7 +11492,7 @@
         <v>2539.404983750001</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -12143,7 +11525,7 @@
         <v>2539.504983750001</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
@@ -12176,7 +11558,7 @@
         <v>2539.513983750001</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
@@ -12209,7 +11591,7 @@
         <v>2537.511383750001</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
@@ -22604,7 +21986,7 @@
         <v>2452.382188630001</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22637,7 +22019,7 @@
         <v>2452.382188630001</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22670,7 +22052,7 @@
         <v>2531.587588630001</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22703,7 +22085,7 @@
         <v>2471.992988630001</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22736,7 +22118,7 @@
         <v>2584.042588630001</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22769,7 +22151,7 @@
         <v>2619.288888630001</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22802,7 +22184,7 @@
         <v>2697.448082780001</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22835,7 +22217,7 @@
         <v>2627.954882780001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22868,7 +22250,7 @@
         <v>2580.604982780001</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22934,7 +22316,7 @@
         <v>2551.432882780001</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -23132,7 +22514,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -23165,7 +22547,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -23198,7 +22580,7 @@
         <v>2499.103682780001</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -23231,7 +22613,7 @@
         <v>2456.711782780001</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -23264,7 +22646,7 @@
         <v>2525.818882780001</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -23297,7 +22679,7 @@
         <v>2521.028082780001</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -23330,7 +22712,7 @@
         <v>2521.811082780001</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -23363,7 +22745,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -23396,7 +22778,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -23429,7 +22811,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -23462,7 +22844,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -23495,7 +22877,7 @@
         <v>2444.78898278</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -23528,7 +22910,7 @@
         <v>2350.80058278</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -23561,7 +22943,7 @@
         <v>2109.18968278</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -23594,7 +22976,7 @@
         <v>2072.23098278</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -23627,7 +23009,7 @@
         <v>2176.69858278</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -23660,7 +23042,7 @@
         <v>2144.22428278</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -23693,7 +23075,7 @@
         <v>2148.58698278</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -23726,7 +23108,7 @@
         <v>2156.83268278</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -23759,7 +23141,7 @@
         <v>2188.99778278</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -23792,7 +23174,7 @@
         <v>2053.65778278</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -23825,7 +23207,7 @@
         <v>2054.15778278</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -23858,7 +23240,7 @@
         <v>2073.45778278</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -23891,7 +23273,7 @@
         <v>2046.49698278</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -23924,7 +23306,7 @@
         <v>2515.40258278</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -23957,7 +23339,7 @@
         <v>2515.40258278</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -23990,7 +23372,7 @@
         <v>2517.40258278</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -24001,6 +23383,6 @@
       <c r="M673" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-16 BackTest ZEC.xlsx
+++ b/BackTest/2020-01-16 BackTest ZEC.xlsx
@@ -1573,10 +1573,14 @@
         <v>-95.10676101999987</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>46240</v>
+      </c>
+      <c r="J36" t="n">
+        <v>46240</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1609,8 +1613,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>46240</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1639,11 +1649,19 @@
         <v>-95.02106101999986</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>46260</v>
+      </c>
+      <c r="J38" t="n">
+        <v>46240</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1672,10 +1690,14 @@
         <v>-95.00616101999987</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I39" t="n">
+        <v>46600</v>
+      </c>
+      <c r="J39" t="n">
+        <v>46600</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="n">
         <v>1</v>
@@ -1705,11 +1727,19 @@
         <v>-114.0771610199999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>46730</v>
+      </c>
+      <c r="J40" t="n">
+        <v>46600</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1738,11 +1768,19 @@
         <v>-109.4263610199999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>46240</v>
+      </c>
+      <c r="J41" t="n">
+        <v>46600</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1771,10 +1809,14 @@
         <v>-114.0770610199999</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>46380</v>
+      </c>
+      <c r="J42" t="n">
+        <v>46380</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
@@ -1804,11 +1846,19 @@
         <v>-136.7304610199999</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>46370</v>
+      </c>
+      <c r="J43" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1837,11 +1887,19 @@
         <v>-147.8971610199999</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>46350</v>
+      </c>
+      <c r="J44" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1870,11 +1928,19 @@
         <v>-147.8735610199999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>46340</v>
+      </c>
+      <c r="J45" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1903,11 +1969,19 @@
         <v>-149.6325610199999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>46510</v>
+      </c>
+      <c r="J46" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1936,11 +2010,19 @@
         <v>-162.5932610199999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>45930</v>
+      </c>
+      <c r="J47" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1969,11 +2051,19 @@
         <v>-157.0428610199999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>45920</v>
+      </c>
+      <c r="J48" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2002,11 +2092,19 @@
         <v>-151.4828610199999</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>46280</v>
+      </c>
+      <c r="J49" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2035,11 +2133,19 @@
         <v>-151.5064610199998</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>46870</v>
+      </c>
+      <c r="J50" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2074,9 +2180,13 @@
         <v>45850</v>
       </c>
       <c r="J51" t="n">
-        <v>45850</v>
-      </c>
-      <c r="K51" t="inlineStr"/>
+        <v>46380</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2105,15 +2215,17 @@
         <v>-146.9131610199998</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>46580</v>
+      </c>
       <c r="J52" t="n">
-        <v>45850</v>
+        <v>46380</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L52" t="n">
@@ -2144,15 +2256,17 @@
         <v>-180.3486615499999</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I53" t="n">
+        <v>46480</v>
+      </c>
       <c r="J53" t="n">
-        <v>45850</v>
+        <v>46380</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L53" t="n">
@@ -2183,11 +2297,19 @@
         <v>-180.3486615499999</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>46450</v>
+      </c>
+      <c r="J54" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2222,9 +2344,13 @@
         <v>46450</v>
       </c>
       <c r="J55" t="n">
-        <v>46450</v>
-      </c>
-      <c r="K55" t="inlineStr"/>
+        <v>46380</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2259,11 +2385,11 @@
         <v>46290</v>
       </c>
       <c r="J56" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L56" t="n">
@@ -2300,7 +2426,7 @@
         <v>46310</v>
       </c>
       <c r="J57" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K57" t="inlineStr">
         <is>
@@ -2341,7 +2467,7 @@
         <v>46780</v>
       </c>
       <c r="J58" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -2382,7 +2508,7 @@
         <v>46460</v>
       </c>
       <c r="J59" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -2423,7 +2549,7 @@
         <v>46200</v>
       </c>
       <c r="J60" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K60" t="inlineStr">
         <is>
@@ -2458,11 +2584,13 @@
         <v>-27.32856753999987</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I61" t="n">
+        <v>46390</v>
+      </c>
       <c r="J61" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -2503,7 +2631,7 @@
         <v>46390</v>
       </c>
       <c r="J62" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -2544,7 +2672,7 @@
         <v>46290</v>
       </c>
       <c r="J63" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
@@ -2585,7 +2713,7 @@
         <v>46290</v>
       </c>
       <c r="J64" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
@@ -2626,7 +2754,7 @@
         <v>46300</v>
       </c>
       <c r="J65" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
@@ -2667,7 +2795,7 @@
         <v>46300</v>
       </c>
       <c r="J66" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K66" t="inlineStr">
         <is>
@@ -2708,7 +2836,7 @@
         <v>46040</v>
       </c>
       <c r="J67" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K67" t="inlineStr">
         <is>
@@ -2749,7 +2877,7 @@
         <v>46030</v>
       </c>
       <c r="J68" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K68" t="inlineStr">
         <is>
@@ -2790,7 +2918,7 @@
         <v>46100</v>
       </c>
       <c r="J69" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K69" t="inlineStr">
         <is>
@@ -2831,7 +2959,7 @@
         <v>46260</v>
       </c>
       <c r="J70" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K70" t="inlineStr">
         <is>
@@ -2866,13 +2994,11 @@
         <v>239.8281324600001</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>46960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K71" t="inlineStr">
         <is>
@@ -2907,13 +3033,11 @@
         <v>239.8281324600001</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
-      </c>
-      <c r="I72" t="n">
-        <v>46330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K72" t="inlineStr">
         <is>
@@ -2948,13 +3072,11 @@
         <v>241.2375324600001</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>46330</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K73" t="inlineStr">
         <is>
@@ -2989,13 +3111,11 @@
         <v>-95.61746753999989</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>46960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -3034,7 +3154,7 @@
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -3069,13 +3189,11 @@
         <v>-146.7478675399999</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>45950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -3110,13 +3228,11 @@
         <v>-132.5182675399999</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>45810</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -3151,13 +3267,11 @@
         <v>-24.2756675399999</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>46080</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -3192,13 +3306,11 @@
         <v>-34.8954675399999</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>46570</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -3237,7 +3349,7 @@
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K80" t="inlineStr">
         <is>
@@ -3272,13 +3384,11 @@
         <v>-61.7180675399999</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>46440</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K81" t="inlineStr">
         <is>
@@ -3317,7 +3427,7 @@
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K82" t="inlineStr">
         <is>
@@ -3356,7 +3466,7 @@
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K83" t="inlineStr">
         <is>
@@ -3395,7 +3505,7 @@
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -3434,7 +3544,7 @@
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -3473,7 +3583,7 @@
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K86" t="inlineStr">
         <is>
@@ -3512,7 +3622,7 @@
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -3551,7 +3661,7 @@
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -3590,7 +3700,7 @@
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -3629,7 +3739,7 @@
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -3668,7 +3778,7 @@
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -3707,7 +3817,7 @@
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -3746,7 +3856,7 @@
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K93" t="inlineStr">
         <is>
@@ -3785,7 +3895,7 @@
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -3824,7 +3934,7 @@
       </c>
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -3863,7 +3973,7 @@
       </c>
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K96" t="inlineStr">
         <is>
@@ -3902,7 +4012,7 @@
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K97" t="inlineStr">
         <is>
@@ -3941,7 +4051,7 @@
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -3980,7 +4090,7 @@
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -4019,7 +4129,7 @@
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -4058,7 +4168,7 @@
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -4097,7 +4207,7 @@
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -4136,7 +4246,7 @@
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -4175,7 +4285,7 @@
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K104" t="inlineStr">
         <is>
@@ -4214,7 +4324,7 @@
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K105" t="inlineStr">
         <is>
@@ -4253,7 +4363,7 @@
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K106" t="inlineStr">
         <is>
@@ -4292,7 +4402,7 @@
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K107" t="inlineStr">
         <is>
@@ -4331,7 +4441,7 @@
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -4370,7 +4480,7 @@
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -4409,7 +4519,7 @@
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K110" t="inlineStr">
         <is>
@@ -4448,7 +4558,7 @@
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K111" t="inlineStr">
         <is>
@@ -4487,7 +4597,7 @@
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -4526,7 +4636,7 @@
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -4565,7 +4675,7 @@
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -4604,7 +4714,7 @@
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K115" t="inlineStr">
         <is>
@@ -4643,7 +4753,7 @@
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -4682,7 +4792,7 @@
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -4721,7 +4831,7 @@
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -4760,7 +4870,7 @@
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K119" t="inlineStr">
         <is>
@@ -4799,7 +4909,7 @@
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K120" t="inlineStr">
         <is>
@@ -4838,7 +4948,7 @@
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K121" t="inlineStr">
         <is>
@@ -4877,7 +4987,7 @@
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K122" t="inlineStr">
         <is>
@@ -4916,7 +5026,7 @@
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K123" t="inlineStr">
         <is>
@@ -4955,7 +5065,7 @@
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K124" t="inlineStr">
         <is>
@@ -4994,7 +5104,7 @@
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -5033,7 +5143,7 @@
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -5072,7 +5182,7 @@
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -5107,13 +5217,11 @@
         <v>-116.7467551799999</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>46960</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -5148,13 +5256,11 @@
         <v>-11.4844551799999</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>46950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K129" t="inlineStr">
         <is>
@@ -5193,7 +5299,7 @@
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K130" t="inlineStr">
         <is>
@@ -5228,13 +5334,11 @@
         <v>-82.46635517999991</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>46950</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
@@ -5269,13 +5373,11 @@
         <v>67.11694591000008</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>46870</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
@@ -5314,7 +5416,7 @@
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
@@ -5353,7 +5455,7 @@
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
@@ -5392,7 +5494,7 @@
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -5431,7 +5533,7 @@
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
@@ -5470,7 +5572,7 @@
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K137" t="inlineStr">
         <is>
@@ -5509,7 +5611,7 @@
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
@@ -5548,7 +5650,7 @@
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -5587,7 +5689,7 @@
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -5626,7 +5728,7 @@
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K141" t="inlineStr">
         <is>
@@ -5665,7 +5767,7 @@
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -5704,7 +5806,7 @@
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -5743,7 +5845,7 @@
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K144" t="inlineStr">
         <is>
@@ -5782,7 +5884,7 @@
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -5821,7 +5923,7 @@
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -5860,7 +5962,7 @@
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -5899,7 +6001,7 @@
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K148" t="inlineStr">
         <is>
@@ -5938,7 +6040,7 @@
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K149" t="inlineStr">
         <is>
@@ -5977,7 +6079,7 @@
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K150" t="inlineStr">
         <is>
@@ -6016,7 +6118,7 @@
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K151" t="inlineStr">
         <is>
@@ -6055,7 +6157,7 @@
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K152" t="inlineStr">
         <is>
@@ -6094,7 +6196,7 @@
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K153" t="inlineStr">
         <is>
@@ -6133,7 +6235,7 @@
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K154" t="inlineStr">
         <is>
@@ -6172,7 +6274,7 @@
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K155" t="inlineStr">
         <is>
@@ -6211,7 +6313,7 @@
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K156" t="inlineStr">
         <is>
@@ -6250,7 +6352,7 @@
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K157" t="inlineStr">
         <is>
@@ -6289,7 +6391,7 @@
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K158" t="inlineStr">
         <is>
@@ -6328,7 +6430,7 @@
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K159" t="inlineStr">
         <is>
@@ -6367,7 +6469,7 @@
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K160" t="inlineStr">
         <is>
@@ -6406,7 +6508,7 @@
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K161" t="inlineStr">
         <is>
@@ -6445,7 +6547,7 @@
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K162" t="inlineStr">
         <is>
@@ -6484,7 +6586,7 @@
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K163" t="inlineStr">
         <is>
@@ -6523,7 +6625,7 @@
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K164" t="inlineStr">
         <is>
@@ -6562,7 +6664,7 @@
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K165" t="inlineStr">
         <is>
@@ -6601,7 +6703,7 @@
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K166" t="inlineStr">
         <is>
@@ -6640,7 +6742,7 @@
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K167" t="inlineStr">
         <is>
@@ -6679,7 +6781,7 @@
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K168" t="inlineStr">
         <is>
@@ -6718,7 +6820,7 @@
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K169" t="inlineStr">
         <is>
@@ -6757,7 +6859,7 @@
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K170" t="inlineStr">
         <is>
@@ -6796,7 +6898,7 @@
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K171" t="inlineStr">
         <is>
@@ -6831,683 +6933,803 @@
         <v>2582.46605236</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
-        <v>46450</v>
+        <v>46380</v>
       </c>
       <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>60300</v>
+      </c>
+      <c r="C173" t="n">
+        <v>57000</v>
+      </c>
+      <c r="D173" t="n">
+        <v>60300</v>
+      </c>
+      <c r="E173" t="n">
+        <v>56450</v>
+      </c>
+      <c r="F173" t="n">
+        <v>194.83180497</v>
+      </c>
+      <c r="G173" t="n">
+        <v>2387.63424739</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>57000</v>
+      </c>
+      <c r="C174" t="n">
+        <v>59550</v>
+      </c>
+      <c r="D174" t="n">
+        <v>59600</v>
+      </c>
+      <c r="E174" t="n">
+        <v>56900</v>
+      </c>
+      <c r="F174" t="n">
+        <v>190.6155</v>
+      </c>
+      <c r="G174" t="n">
+        <v>2578.24974739</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>59550</v>
+      </c>
+      <c r="C175" t="n">
+        <v>57800</v>
+      </c>
+      <c r="D175" t="n">
+        <v>59650</v>
+      </c>
+      <c r="E175" t="n">
+        <v>57050</v>
+      </c>
+      <c r="F175" t="n">
+        <v>184.36089807</v>
+      </c>
+      <c r="G175" t="n">
+        <v>2393.88884932</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>59500</v>
+      </c>
+      <c r="C176" t="n">
+        <v>59400</v>
+      </c>
+      <c r="D176" t="n">
+        <v>59500</v>
+      </c>
+      <c r="E176" t="n">
+        <v>58050</v>
+      </c>
+      <c r="F176" t="n">
+        <v>22.48878301</v>
+      </c>
+      <c r="G176" t="n">
+        <v>2416.37763233</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>58300</v>
+      </c>
+      <c r="C177" t="n">
+        <v>58050</v>
+      </c>
+      <c r="D177" t="n">
+        <v>59050</v>
+      </c>
+      <c r="E177" t="n">
+        <v>58050</v>
+      </c>
+      <c r="F177" t="n">
+        <v>185.4101</v>
+      </c>
+      <c r="G177" t="n">
+        <v>2230.96753233</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>58000</v>
+      </c>
+      <c r="C178" t="n">
+        <v>57350</v>
+      </c>
+      <c r="D178" t="n">
+        <v>58750</v>
+      </c>
+      <c r="E178" t="n">
+        <v>57200</v>
+      </c>
+      <c r="F178" t="n">
+        <v>592.13949787</v>
+      </c>
+      <c r="G178" t="n">
+        <v>1638.82803446</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>57900</v>
+      </c>
+      <c r="C179" t="n">
+        <v>57900</v>
+      </c>
+      <c r="D179" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E179" t="n">
+        <v>53200</v>
+      </c>
+      <c r="F179" t="n">
+        <v>318.6916</v>
+      </c>
+      <c r="G179" t="n">
+        <v>1957.51963446</v>
+      </c>
+      <c r="H179" t="n">
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>57900</v>
+      </c>
+      <c r="C180" t="n">
+        <v>59950</v>
+      </c>
+      <c r="D180" t="n">
+        <v>59950</v>
+      </c>
+      <c r="E180" t="n">
+        <v>57900</v>
+      </c>
+      <c r="F180" t="n">
+        <v>233.8641</v>
+      </c>
+      <c r="G180" t="n">
+        <v>2191.38373446</v>
+      </c>
+      <c r="H180" t="n">
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>59950</v>
+      </c>
+      <c r="C181" t="n">
+        <v>59050</v>
+      </c>
+      <c r="D181" t="n">
+        <v>59950</v>
+      </c>
+      <c r="E181" t="n">
+        <v>58900</v>
+      </c>
+      <c r="F181" t="n">
+        <v>81.02984812</v>
+      </c>
+      <c r="G181" t="n">
+        <v>2110.35388634</v>
+      </c>
+      <c r="H181" t="n">
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>59050</v>
+      </c>
+      <c r="C182" t="n">
+        <v>59100</v>
+      </c>
+      <c r="D182" t="n">
+        <v>60200</v>
+      </c>
+      <c r="E182" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F182" t="n">
+        <v>242.65941597</v>
+      </c>
+      <c r="G182" t="n">
+        <v>2353.01330231</v>
+      </c>
+      <c r="H182" t="n">
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>59100</v>
+      </c>
+      <c r="C183" t="n">
+        <v>58850</v>
+      </c>
+      <c r="D183" t="n">
+        <v>59100</v>
+      </c>
+      <c r="E183" t="n">
+        <v>58000</v>
+      </c>
+      <c r="F183" t="n">
+        <v>46.06255084</v>
+      </c>
+      <c r="G183" t="n">
+        <v>2306.95075147</v>
+      </c>
+      <c r="H183" t="n">
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>59050</v>
+      </c>
+      <c r="C184" t="n">
+        <v>59050</v>
+      </c>
+      <c r="D184" t="n">
+        <v>59050</v>
+      </c>
+      <c r="E184" t="n">
+        <v>59050</v>
+      </c>
+      <c r="F184" t="n">
+        <v>2.557</v>
+      </c>
+      <c r="G184" t="n">
+        <v>2309.50775147</v>
+      </c>
+      <c r="H184" t="n">
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>58300</v>
+      </c>
+      <c r="C185" t="n">
+        <v>58900</v>
+      </c>
+      <c r="D185" t="n">
+        <v>58900</v>
+      </c>
+      <c r="E185" t="n">
+        <v>57950</v>
+      </c>
+      <c r="F185" t="n">
+        <v>110.9126</v>
+      </c>
+      <c r="G185" t="n">
+        <v>2198.59515147</v>
+      </c>
+      <c r="H185" t="n">
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>58900</v>
+      </c>
+      <c r="C186" t="n">
+        <v>59000</v>
+      </c>
+      <c r="D186" t="n">
+        <v>59000</v>
+      </c>
+      <c r="E186" t="n">
+        <v>58900</v>
+      </c>
+      <c r="F186" t="n">
+        <v>25.52149152</v>
+      </c>
+      <c r="G186" t="n">
+        <v>2224.116642989999</v>
+      </c>
+      <c r="H186" t="n">
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>59000</v>
+      </c>
+      <c r="C187" t="n">
+        <v>62800</v>
+      </c>
+      <c r="D187" t="n">
+        <v>62800</v>
+      </c>
+      <c r="E187" t="n">
+        <v>59000</v>
+      </c>
+      <c r="F187" t="n">
+        <v>322.88138135</v>
+      </c>
+      <c r="G187" t="n">
+        <v>2546.99802434</v>
+      </c>
+      <c r="H187" t="n">
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>61800</v>
+      </c>
+      <c r="C188" t="n">
+        <v>63000</v>
+      </c>
+      <c r="D188" t="n">
+        <v>63000</v>
+      </c>
+      <c r="E188" t="n">
+        <v>61800</v>
+      </c>
+      <c r="F188" t="n">
+        <v>78.35250000000001</v>
+      </c>
+      <c r="G188" t="n">
+        <v>2625.35052434</v>
+      </c>
+      <c r="H188" t="n">
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>62750</v>
+      </c>
+      <c r="C189" t="n">
+        <v>60250</v>
+      </c>
+      <c r="D189" t="n">
+        <v>64000</v>
+      </c>
+      <c r="E189" t="n">
+        <v>60250</v>
+      </c>
+      <c r="F189" t="n">
+        <v>290.64991536</v>
+      </c>
+      <c r="G189" t="n">
+        <v>2334.70060898</v>
+      </c>
+      <c r="H189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>63750</v>
+      </c>
+      <c r="C190" t="n">
+        <v>63750</v>
+      </c>
+      <c r="D190" t="n">
+        <v>65000</v>
+      </c>
+      <c r="E190" t="n">
+        <v>63750</v>
+      </c>
+      <c r="F190" t="n">
+        <v>65.43646572</v>
+      </c>
+      <c r="G190" t="n">
+        <v>2400.1370747</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>63600</v>
+      </c>
+      <c r="C191" t="n">
+        <v>61550</v>
+      </c>
+      <c r="D191" t="n">
+        <v>63750</v>
+      </c>
+      <c r="E191" t="n">
+        <v>61550</v>
+      </c>
+      <c r="F191" t="n">
+        <v>222.4782</v>
+      </c>
+      <c r="G191" t="n">
+        <v>2177.6588747</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>63500</v>
+      </c>
+      <c r="C192" t="n">
+        <v>63400</v>
+      </c>
+      <c r="D192" t="n">
+        <v>63500</v>
+      </c>
+      <c r="E192" t="n">
+        <v>61550</v>
+      </c>
+      <c r="F192" t="n">
+        <v>95.1404</v>
+      </c>
+      <c r="G192" t="n">
+        <v>2272.7992747</v>
+      </c>
+      <c r="H192" t="n">
+        <v>2</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>46380</v>
+      </c>
+      <c r="K192" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L172" t="n">
-        <v>1.328692142088267</v>
-      </c>
-      <c r="M172" t="n">
-        <v>1.072846237731734</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
-        <v>171</v>
-      </c>
-      <c r="B173" t="n">
-        <v>60300</v>
-      </c>
-      <c r="C173" t="n">
-        <v>57000</v>
-      </c>
-      <c r="D173" t="n">
-        <v>60300</v>
-      </c>
-      <c r="E173" t="n">
-        <v>56450</v>
-      </c>
-      <c r="F173" t="n">
-        <v>194.83180497</v>
-      </c>
-      <c r="G173" t="n">
-        <v>2387.63424739</v>
-      </c>
-      <c r="H173" t="n">
-        <v>2</v>
-      </c>
-      <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
-      <c r="L173" t="n">
-        <v>1</v>
-      </c>
-      <c r="M173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
-        <v>172</v>
-      </c>
-      <c r="B174" t="n">
-        <v>57000</v>
-      </c>
-      <c r="C174" t="n">
-        <v>59550</v>
-      </c>
-      <c r="D174" t="n">
-        <v>59600</v>
-      </c>
-      <c r="E174" t="n">
-        <v>56900</v>
-      </c>
-      <c r="F174" t="n">
-        <v>190.6155</v>
-      </c>
-      <c r="G174" t="n">
-        <v>2578.24974739</v>
-      </c>
-      <c r="H174" t="n">
-        <v>2</v>
-      </c>
-      <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
-      <c r="L174" t="n">
-        <v>1</v>
-      </c>
-      <c r="M174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="B175" t="n">
-        <v>59550</v>
-      </c>
-      <c r="C175" t="n">
-        <v>57800</v>
-      </c>
-      <c r="D175" t="n">
-        <v>59650</v>
-      </c>
-      <c r="E175" t="n">
-        <v>57050</v>
-      </c>
-      <c r="F175" t="n">
-        <v>184.36089807</v>
-      </c>
-      <c r="G175" t="n">
-        <v>2393.88884932</v>
-      </c>
-      <c r="H175" t="n">
-        <v>2</v>
-      </c>
-      <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
-      <c r="L175" t="n">
-        <v>1</v>
-      </c>
-      <c r="M175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
-        <v>174</v>
-      </c>
-      <c r="B176" t="n">
-        <v>59500</v>
-      </c>
-      <c r="C176" t="n">
-        <v>59400</v>
-      </c>
-      <c r="D176" t="n">
-        <v>59500</v>
-      </c>
-      <c r="E176" t="n">
-        <v>58050</v>
-      </c>
-      <c r="F176" t="n">
-        <v>22.48878301</v>
-      </c>
-      <c r="G176" t="n">
-        <v>2416.37763233</v>
-      </c>
-      <c r="H176" t="n">
-        <v>2</v>
-      </c>
-      <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
-      <c r="L176" t="n">
-        <v>1</v>
-      </c>
-      <c r="M176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>58300</v>
-      </c>
-      <c r="C177" t="n">
-        <v>58050</v>
-      </c>
-      <c r="D177" t="n">
-        <v>59050</v>
-      </c>
-      <c r="E177" t="n">
-        <v>58050</v>
-      </c>
-      <c r="F177" t="n">
-        <v>185.4101</v>
-      </c>
-      <c r="G177" t="n">
-        <v>2230.96753233</v>
-      </c>
-      <c r="H177" t="n">
-        <v>2</v>
-      </c>
-      <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
-      <c r="L177" t="n">
-        <v>1</v>
-      </c>
-      <c r="M177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>58000</v>
-      </c>
-      <c r="C178" t="n">
-        <v>57350</v>
-      </c>
-      <c r="D178" t="n">
-        <v>58750</v>
-      </c>
-      <c r="E178" t="n">
-        <v>57200</v>
-      </c>
-      <c r="F178" t="n">
-        <v>592.13949787</v>
-      </c>
-      <c r="G178" t="n">
-        <v>1638.82803446</v>
-      </c>
-      <c r="H178" t="n">
-        <v>2</v>
-      </c>
-      <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
-      <c r="L178" t="n">
-        <v>1</v>
-      </c>
-      <c r="M178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>57900</v>
-      </c>
-      <c r="C179" t="n">
-        <v>57900</v>
-      </c>
-      <c r="D179" t="n">
-        <v>59000</v>
-      </c>
-      <c r="E179" t="n">
-        <v>53200</v>
-      </c>
-      <c r="F179" t="n">
-        <v>318.6916</v>
-      </c>
-      <c r="G179" t="n">
-        <v>1957.51963446</v>
-      </c>
-      <c r="H179" t="n">
-        <v>2</v>
-      </c>
-      <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
-      <c r="L179" t="n">
-        <v>1</v>
-      </c>
-      <c r="M179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>57900</v>
-      </c>
-      <c r="C180" t="n">
-        <v>59950</v>
-      </c>
-      <c r="D180" t="n">
-        <v>59950</v>
-      </c>
-      <c r="E180" t="n">
-        <v>57900</v>
-      </c>
-      <c r="F180" t="n">
-        <v>233.8641</v>
-      </c>
-      <c r="G180" t="n">
-        <v>2191.38373446</v>
-      </c>
-      <c r="H180" t="n">
-        <v>2</v>
-      </c>
-      <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
-      <c r="L180" t="n">
-        <v>1</v>
-      </c>
-      <c r="M180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>59950</v>
-      </c>
-      <c r="C181" t="n">
-        <v>59050</v>
-      </c>
-      <c r="D181" t="n">
-        <v>59950</v>
-      </c>
-      <c r="E181" t="n">
-        <v>58900</v>
-      </c>
-      <c r="F181" t="n">
-        <v>81.02984812</v>
-      </c>
-      <c r="G181" t="n">
-        <v>2110.35388634</v>
-      </c>
-      <c r="H181" t="n">
-        <v>2</v>
-      </c>
-      <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
-      <c r="L181" t="n">
-        <v>1</v>
-      </c>
-      <c r="M181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>59050</v>
-      </c>
-      <c r="C182" t="n">
-        <v>59100</v>
-      </c>
-      <c r="D182" t="n">
-        <v>60200</v>
-      </c>
-      <c r="E182" t="n">
-        <v>57950</v>
-      </c>
-      <c r="F182" t="n">
-        <v>242.65941597</v>
-      </c>
-      <c r="G182" t="n">
-        <v>2353.01330231</v>
-      </c>
-      <c r="H182" t="n">
-        <v>2</v>
-      </c>
-      <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
-      <c r="L182" t="n">
-        <v>1</v>
-      </c>
-      <c r="M182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>59100</v>
-      </c>
-      <c r="C183" t="n">
-        <v>58850</v>
-      </c>
-      <c r="D183" t="n">
-        <v>59100</v>
-      </c>
-      <c r="E183" t="n">
-        <v>58000</v>
-      </c>
-      <c r="F183" t="n">
-        <v>46.06255084</v>
-      </c>
-      <c r="G183" t="n">
-        <v>2306.95075147</v>
-      </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
-      <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
-      <c r="L183" t="n">
-        <v>1</v>
-      </c>
-      <c r="M183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>59050</v>
-      </c>
-      <c r="C184" t="n">
-        <v>59050</v>
-      </c>
-      <c r="D184" t="n">
-        <v>59050</v>
-      </c>
-      <c r="E184" t="n">
-        <v>59050</v>
-      </c>
-      <c r="F184" t="n">
-        <v>2.557</v>
-      </c>
-      <c r="G184" t="n">
-        <v>2309.50775147</v>
-      </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
-      <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
-      <c r="L184" t="n">
-        <v>1</v>
-      </c>
-      <c r="M184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>58300</v>
-      </c>
-      <c r="C185" t="n">
-        <v>58900</v>
-      </c>
-      <c r="D185" t="n">
-        <v>58900</v>
-      </c>
-      <c r="E185" t="n">
-        <v>57950</v>
-      </c>
-      <c r="F185" t="n">
-        <v>110.9126</v>
-      </c>
-      <c r="G185" t="n">
-        <v>2198.59515147</v>
-      </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
-      <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
-      <c r="L185" t="n">
-        <v>1</v>
-      </c>
-      <c r="M185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>58900</v>
-      </c>
-      <c r="C186" t="n">
-        <v>59000</v>
-      </c>
-      <c r="D186" t="n">
-        <v>59000</v>
-      </c>
-      <c r="E186" t="n">
-        <v>58900</v>
-      </c>
-      <c r="F186" t="n">
-        <v>25.52149152</v>
-      </c>
-      <c r="G186" t="n">
-        <v>2224.116642989999</v>
-      </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
-      <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
-      <c r="L186" t="n">
-        <v>1</v>
-      </c>
-      <c r="M186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>59000</v>
-      </c>
-      <c r="C187" t="n">
-        <v>62800</v>
-      </c>
-      <c r="D187" t="n">
-        <v>62800</v>
-      </c>
-      <c r="E187" t="n">
-        <v>59000</v>
-      </c>
-      <c r="F187" t="n">
-        <v>322.88138135</v>
-      </c>
-      <c r="G187" t="n">
-        <v>2546.99802434</v>
-      </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
-      <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
-      <c r="L187" t="n">
-        <v>1</v>
-      </c>
-      <c r="M187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>61800</v>
-      </c>
-      <c r="C188" t="n">
-        <v>63000</v>
-      </c>
-      <c r="D188" t="n">
-        <v>63000</v>
-      </c>
-      <c r="E188" t="n">
-        <v>61800</v>
-      </c>
-      <c r="F188" t="n">
-        <v>78.35250000000001</v>
-      </c>
-      <c r="G188" t="n">
-        <v>2625.35052434</v>
-      </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
-      <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
-      <c r="L188" t="n">
-        <v>1</v>
-      </c>
-      <c r="M188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>62750</v>
-      </c>
-      <c r="C189" t="n">
-        <v>60250</v>
-      </c>
-      <c r="D189" t="n">
-        <v>64000</v>
-      </c>
-      <c r="E189" t="n">
-        <v>60250</v>
-      </c>
-      <c r="F189" t="n">
-        <v>290.64991536</v>
-      </c>
-      <c r="G189" t="n">
-        <v>2334.70060898</v>
-      </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
-      <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>63750</v>
-      </c>
-      <c r="C190" t="n">
-        <v>63750</v>
-      </c>
-      <c r="D190" t="n">
-        <v>65000</v>
-      </c>
-      <c r="E190" t="n">
-        <v>63750</v>
-      </c>
-      <c r="F190" t="n">
-        <v>65.43646572</v>
-      </c>
-      <c r="G190" t="n">
-        <v>2400.1370747</v>
-      </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
-      <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>63600</v>
-      </c>
-      <c r="C191" t="n">
-        <v>61550</v>
-      </c>
-      <c r="D191" t="n">
-        <v>63750</v>
-      </c>
-      <c r="E191" t="n">
-        <v>61550</v>
-      </c>
-      <c r="F191" t="n">
-        <v>222.4782</v>
-      </c>
-      <c r="G191" t="n">
-        <v>2177.6588747</v>
-      </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
-      <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>63500</v>
-      </c>
-      <c r="C192" t="n">
-        <v>63400</v>
-      </c>
-      <c r="D192" t="n">
-        <v>63500</v>
-      </c>
-      <c r="E192" t="n">
-        <v>61550</v>
-      </c>
-      <c r="F192" t="n">
-        <v>95.1404</v>
-      </c>
-      <c r="G192" t="n">
-        <v>2272.7992747</v>
-      </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
-      <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
       <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
+        <v>1.361968520914187</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1.064027687648713</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7532,7 +7754,7 @@
         <v>2536.05242371</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -7565,7 +7787,7 @@
         <v>2443.17657387</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -7598,7 +7820,7 @@
         <v>2578.25457387</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -7631,7 +7853,7 @@
         <v>2585.21847387</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -7763,7 +7985,7 @@
         <v>2408.031696309999</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7895,7 +8117,7 @@
         <v>2100.930696309999</v>
       </c>
       <c r="H204" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7928,7 +8150,7 @@
         <v>2145.930896309999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7961,7 +8183,7 @@
         <v>2178.515284269999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7994,7 +8216,7 @@
         <v>2046.07298427</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -8291,7 +8513,7 @@
         <v>1755.597984269999</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -8324,7 +8546,7 @@
         <v>1670.933784269999</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -21920,7 +22142,7 @@
         <v>2452.813806430001</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21953,7 +22175,7 @@
         <v>2586.982806430001</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21986,7 +22208,7 @@
         <v>2452.382188630001</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -22019,7 +22241,7 @@
         <v>2452.382188630001</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -22052,7 +22274,7 @@
         <v>2531.587588630001</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -22085,7 +22307,7 @@
         <v>2471.992988630001</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -22118,7 +22340,7 @@
         <v>2584.042588630001</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -22151,7 +22373,7 @@
         <v>2619.288888630001</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22184,7 +22406,7 @@
         <v>2697.448082780001</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22217,7 +22439,7 @@
         <v>2627.954882780001</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22250,7 +22472,7 @@
         <v>2580.604982780001</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22283,7 +22505,7 @@
         <v>2576.432882780001</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22316,7 +22538,7 @@
         <v>2551.432882780001</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22349,7 +22571,7 @@
         <v>2551.879982780001</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22382,7 +22604,7 @@
         <v>2551.879982780001</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22415,7 +22637,7 @@
         <v>2516.666182780001</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22448,7 +22670,7 @@
         <v>2452.144582780001</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22481,7 +22703,7 @@
         <v>2452.144582780001</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -22514,7 +22736,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -22547,7 +22769,7 @@
         <v>2490.447782780001</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -22580,7 +22802,7 @@
         <v>2499.103682780001</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -22613,7 +22835,7 @@
         <v>2456.711782780001</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -22646,7 +22868,7 @@
         <v>2525.818882780001</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -22679,7 +22901,7 @@
         <v>2521.028082780001</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -22745,7 +22967,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -22778,7 +23000,7 @@
         <v>2516.588082780001</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -22877,7 +23099,7 @@
         <v>2444.78898278</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -22910,7 +23132,7 @@
         <v>2350.80058278</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -22943,7 +23165,7 @@
         <v>2109.18968278</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -22976,7 +23198,7 @@
         <v>2072.23098278</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
